--- a/raw_data/20200818_saline/20200818_Sensor3_Test_51.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_51.xlsx
@@ -1,855 +1,1271 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A72FA-EBBA-4971-97D0-B3B58C6B3364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>45560.139726</v>
+        <v>45560.139726000001</v>
       </c>
       <c r="B2" s="1">
-        <v>12.655594</v>
+        <v>12.655594000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1152.060000</v>
+        <v>1152.06</v>
       </c>
       <c r="D2" s="1">
-        <v>-232.481000</v>
+        <v>-232.48099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>45570.534917</v>
+        <v>45570.534916999997</v>
       </c>
       <c r="G2" s="1">
-        <v>12.658482</v>
+        <v>12.658481999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.350000</v>
+        <v>1169.3499999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-198.495000</v>
+        <v>-198.495</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>45580.640371</v>
+        <v>45580.640371000001</v>
       </c>
       <c r="L2" s="1">
         <v>12.661289</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.990000</v>
+        <v>1195.99</v>
       </c>
       <c r="N2" s="1">
-        <v>-140.849000</v>
+        <v>-140.84899999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>45591.433856</v>
+        <v>45591.433856000003</v>
       </c>
       <c r="Q2" s="1">
         <v>12.664287</v>
       </c>
       <c r="R2" s="1">
-        <v>1204.040000</v>
+        <v>1204.04</v>
       </c>
       <c r="S2" s="1">
-        <v>-122.015000</v>
+        <v>-122.015</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>45601.927175</v>
+        <v>45601.927174999997</v>
       </c>
       <c r="V2" s="1">
         <v>12.667202</v>
       </c>
       <c r="W2" s="1">
-        <v>1212.090000</v>
+        <v>1212.0899999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-103.990000</v>
+        <v>-103.99</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>45611.991035</v>
+        <v>45611.991034999999</v>
       </c>
       <c r="AA2" s="1">
         <v>12.669998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1220.760000</v>
+        <v>1220.76</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.011900</v>
+        <v>-89.011899999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>45622.535949</v>
+        <v>45622.535948999997</v>
       </c>
       <c r="AF2" s="1">
         <v>12.672927</v>
       </c>
       <c r="AG2" s="1">
-        <v>1226.070000</v>
+        <v>1226.07</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.447200</v>
+        <v>-85.447199999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>45632.978258</v>
+        <v>45632.978258000003</v>
       </c>
       <c r="AK2" s="1">
         <v>12.675827</v>
       </c>
       <c r="AL2" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.384700</v>
+        <v>-89.384699999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>45643.861441</v>
+        <v>45643.861441000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.678850</v>
+        <v>12.678850000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.755000</v>
+        <v>-101.755</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>45654.908338</v>
+        <v>45654.908338000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>12.681919</v>
+        <v>12.681919000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1251.940000</v>
+        <v>1251.94</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.481000</v>
+        <v>-121.48099999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>45665.754386</v>
+        <v>45665.754386000001</v>
       </c>
       <c r="AZ2" s="1">
         <v>12.684932</v>
       </c>
       <c r="BA2" s="1">
-        <v>1260.470000</v>
+        <v>1260.47</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.253000</v>
+        <v>-139.25299999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>45676.644517</v>
+        <v>45676.644517000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>12.687957</v>
+        <v>12.687957000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1300.770000</v>
+        <v>1300.77</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.305000</v>
+        <v>-222.30500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>45687.257416</v>
       </c>
       <c r="BJ2" s="1">
-        <v>12.690905</v>
+        <v>12.690905000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1370.640000</v>
+        <v>1370.64</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.681000</v>
+        <v>-360.68099999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>45698.372759</v>
+        <v>45698.372758999998</v>
       </c>
       <c r="BO2" s="1">
         <v>12.693992</v>
       </c>
       <c r="BP2" s="1">
-        <v>1485.380000</v>
+        <v>1485.38</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-586.584000</v>
+        <v>-586.58399999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>45709.428126</v>
+        <v>45709.428125999999</v>
       </c>
       <c r="BT2" s="1">
         <v>12.697063</v>
       </c>
       <c r="BU2" s="1">
-        <v>1617.840000</v>
+        <v>1617.84</v>
       </c>
       <c r="BV2" s="1">
-        <v>-841.964000</v>
+        <v>-841.96400000000006</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>45720.153579</v>
+        <v>45720.153578999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.700043</v>
+        <v>12.700043000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1771.740000</v>
+        <v>1771.74</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1120.410000</v>
+        <v>-1120.4100000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>45731.242172</v>
+        <v>45731.242171999998</v>
       </c>
       <c r="CD2" s="1">
         <v>12.703123</v>
       </c>
       <c r="CE2" s="1">
-        <v>2196.280000</v>
+        <v>2196.2800000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1794.870000</v>
+        <v>-1794.87</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>45560.503822</v>
+        <v>45560.503821999999</v>
       </c>
       <c r="B3" s="1">
-        <v>12.655696</v>
+        <v>12.655696000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1151.930000</v>
+        <v>1151.93</v>
       </c>
       <c r="D3" s="1">
-        <v>-232.425000</v>
+        <v>-232.42500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>45570.879600</v>
+        <v>45570.8796</v>
       </c>
       <c r="G3" s="1">
         <v>12.658578</v>
       </c>
       <c r="H3" s="1">
-        <v>1170.330000</v>
+        <v>1170.33</v>
       </c>
       <c r="I3" s="1">
-        <v>-196.563000</v>
+        <v>-196.56299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>45581.337090</v>
+        <v>45581.337090000001</v>
       </c>
       <c r="L3" s="1">
         <v>12.661483</v>
       </c>
       <c r="M3" s="1">
-        <v>1195.710000</v>
+        <v>1195.71</v>
       </c>
       <c r="N3" s="1">
-        <v>-141.172000</v>
+        <v>-141.172</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>45591.779524</v>
+        <v>45591.779523999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>12.664383</v>
+        <v>12.664383000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.980000</v>
+        <v>1203.98</v>
       </c>
       <c r="S3" s="1">
-        <v>-122.120000</v>
+        <v>-122.12</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>45602.273384</v>
       </c>
       <c r="V3" s="1">
-        <v>12.667298</v>
+        <v>12.667298000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1212.170000</v>
+        <v>1212.17</v>
       </c>
       <c r="X3" s="1">
-        <v>-103.820000</v>
+        <v>-103.82</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>45612.341673</v>
+        <v>45612.341673000003</v>
       </c>
       <c r="AA3" s="1">
         <v>12.670095</v>
       </c>
       <c r="AB3" s="1">
-        <v>1220.720000</v>
+        <v>1220.72</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.003500</v>
+        <v>-89.003500000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>45623.226380</v>
+        <v>45623.22638</v>
       </c>
       <c r="AF3" s="1">
-        <v>12.673118</v>
+        <v>12.673118000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1226.030000</v>
+        <v>1226.03</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.150100</v>
+        <v>-85.150099999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>45633.664687</v>
+        <v>45633.664686999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>12.676018</v>
+        <v>12.676017999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1233.630000</v>
+        <v>1233.6300000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.412700</v>
+        <v>-89.412700000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>45644.300895</v>
@@ -858,165 +1274,165 @@
         <v>12.678972</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1241.780000</v>
+        <v>1241.78</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.794000</v>
+        <v>-101.794</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>45655.299186</v>
+        <v>45655.299185999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>12.682028</v>
+        <v>12.682028000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1251.940000</v>
+        <v>1251.94</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.485000</v>
+        <v>-121.485</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>45666.115441</v>
+        <v>45666.115441000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>12.685032</v>
       </c>
       <c r="BA3" s="1">
-        <v>1260.420000</v>
+        <v>1260.42</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.232000</v>
+        <v>-139.232</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>45677.025476</v>
+        <v>45677.025476000003</v>
       </c>
       <c r="BE3" s="1">
         <v>12.688063</v>
       </c>
       <c r="BF3" s="1">
-        <v>1300.760000</v>
+        <v>1300.76</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.299000</v>
+        <v>-222.29900000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>45687.658678</v>
       </c>
       <c r="BJ3" s="1">
-        <v>12.691016</v>
+        <v>12.691015999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1370.650000</v>
+        <v>1370.65</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.712000</v>
+        <v>-360.71199999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>45698.801800</v>
+        <v>45698.801800000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>12.694112</v>
+        <v>12.694112000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1485.480000</v>
+        <v>1485.48</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-586.670000</v>
+        <v>-586.66999999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>45709.565977</v>
+        <v>45709.565976999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>12.697102</v>
+        <v>12.697101999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1617.810000</v>
+        <v>1617.81</v>
       </c>
       <c r="BV3" s="1">
-        <v>-841.986000</v>
+        <v>-841.98599999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>45720.321723</v>
+        <v>45720.321723000001</v>
       </c>
       <c r="BY3" s="1">
         <v>12.700089</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1772.010000</v>
+        <v>1772.01</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1120.480000</v>
+        <v>-1120.48</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>45731.836349</v>
+        <v>45731.836348999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>12.703288</v>
+        <v>12.703288000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2194.570000</v>
+        <v>2194.5700000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1796.680000</v>
+        <v>-1796.68</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>45561.190749</v>
+        <v>45561.190749000001</v>
       </c>
       <c r="B4" s="1">
-        <v>12.655886</v>
+        <v>12.655886000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1151.710000</v>
+        <v>1151.71</v>
       </c>
       <c r="D4" s="1">
-        <v>-232.447000</v>
+        <v>-232.447</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>45571.571023</v>
+        <v>45571.571022999997</v>
       </c>
       <c r="G4" s="1">
-        <v>12.658770</v>
+        <v>12.658770000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1170.090000</v>
+        <v>1170.0899999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-197.392000</v>
+        <v>-197.392</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>45581.674562</v>
@@ -1025,330 +1441,330 @@
         <v>12.661576</v>
       </c>
       <c r="M4" s="1">
-        <v>1195.870000</v>
+        <v>1195.8699999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-140.914000</v>
+        <v>-140.91399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>45592.128244</v>
       </c>
       <c r="Q4" s="1">
-        <v>12.664480</v>
+        <v>12.664479999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.970000</v>
+        <v>1203.97</v>
       </c>
       <c r="S4" s="1">
-        <v>-122.131000</v>
+        <v>-122.131</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>45602.618103</v>
+        <v>45602.618103000001</v>
       </c>
       <c r="V4" s="1">
         <v>12.667394</v>
       </c>
       <c r="W4" s="1">
-        <v>1212.090000</v>
+        <v>1212.0899999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-103.900000</v>
+        <v>-103.9</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>45612.997880</v>
+        <v>45612.997880000003</v>
       </c>
       <c r="AA4" s="1">
         <v>12.670277</v>
       </c>
       <c r="AB4" s="1">
-        <v>1220.750000</v>
+        <v>1220.75</v>
       </c>
       <c r="AC4" s="1">
-        <v>-88.963900</v>
+        <v>-88.963899999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>45623.601884</v>
+        <v>45623.601884000003</v>
       </c>
       <c r="AF4" s="1">
         <v>12.673223</v>
       </c>
       <c r="AG4" s="1">
-        <v>1226.130000</v>
+        <v>1226.1300000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.043700</v>
+        <v>-85.043700000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>45634.056028</v>
+        <v>45634.056027999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>12.676127</v>
+        <v>12.676126999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.397100</v>
+        <v>-89.397099999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>45644.662014</v>
+        <v>45644.662014000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>12.679073</v>
+        <v>12.679073000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.745000</v>
+        <v>-101.745</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>45655.663571</v>
+        <v>45655.663570999997</v>
       </c>
       <c r="AU4" s="1">
         <v>12.682129</v>
       </c>
       <c r="AV4" s="1">
-        <v>1251.910000</v>
+        <v>1251.9100000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.494000</v>
+        <v>-121.494</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>45666.473553</v>
+        <v>45666.473553000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>12.685132</v>
+        <v>12.685131999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1260.470000</v>
+        <v>1260.47</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.251000</v>
+        <v>-139.251</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>45677.446051</v>
+        <v>45677.446050999999</v>
       </c>
       <c r="BE4" s="1">
         <v>12.688179</v>
       </c>
       <c r="BF4" s="1">
-        <v>1300.770000</v>
+        <v>1300.77</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.341000</v>
+        <v>-222.34100000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>45688.191876</v>
+        <v>45688.191875999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>12.691164</v>
+        <v>12.691164000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1370.660000</v>
+        <v>1370.66</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.710000</v>
+        <v>-360.71</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>45699.209015</v>
       </c>
       <c r="BO4" s="1">
-        <v>12.694225</v>
+        <v>12.694224999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1485.400000</v>
+        <v>1485.4</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-586.576000</v>
+        <v>-586.57600000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>45710.004968</v>
+        <v>45710.004968000001</v>
       </c>
       <c r="BT4" s="1">
         <v>12.697224</v>
       </c>
       <c r="BU4" s="1">
-        <v>1617.860000</v>
+        <v>1617.86</v>
       </c>
       <c r="BV4" s="1">
-        <v>-842.028000</v>
+        <v>-842.02800000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>45720.756714</v>
+        <v>45720.756714000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.700210</v>
+        <v>12.70021</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1772.070000</v>
+        <v>1772.07</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1120.480000</v>
+        <v>-1120.48</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>45732.377484</v>
+        <v>45732.377483999997</v>
       </c>
       <c r="CD4" s="1">
         <v>12.703438</v>
       </c>
       <c r="CE4" s="1">
-        <v>2196.770000</v>
+        <v>2196.77</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1796.780000</v>
+        <v>-1796.78</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>45561.530012</v>
+        <v>45561.530012000003</v>
       </c>
       <c r="B5" s="1">
-        <v>12.655981</v>
+        <v>12.655981000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1151.890000</v>
+        <v>1151.8900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-232.817000</v>
+        <v>-232.81700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>45571.899375</v>
+        <v>45571.899375000001</v>
       </c>
       <c r="G5" s="1">
         <v>12.658861</v>
       </c>
       <c r="H5" s="1">
-        <v>1169.760000</v>
+        <v>1169.76</v>
       </c>
       <c r="I5" s="1">
-        <v>-197.333000</v>
+        <v>-197.333</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>45582.019282</v>
+        <v>45582.019282000001</v>
       </c>
       <c r="L5" s="1">
-        <v>12.661672</v>
+        <v>12.661671999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-140.755000</v>
+        <v>-140.755</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>45592.799796</v>
+        <v>45592.799795999999</v>
       </c>
       <c r="Q5" s="1">
         <v>12.664667</v>
       </c>
       <c r="R5" s="1">
-        <v>1203.940000</v>
+        <v>1203.94</v>
       </c>
       <c r="S5" s="1">
-        <v>-122.001000</v>
+        <v>-122.001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>45603.272851</v>
+        <v>45603.272851000002</v>
       </c>
       <c r="V5" s="1">
         <v>12.667576</v>
       </c>
       <c r="W5" s="1">
-        <v>1212.260000</v>
+        <v>1212.26</v>
       </c>
       <c r="X5" s="1">
-        <v>-103.871000</v>
+        <v>-103.871</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>45613.389255</v>
+        <v>45613.389255000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>12.670386</v>
+        <v>12.670386000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1220.720000</v>
+        <v>1220.72</v>
       </c>
       <c r="AC5" s="1">
-        <v>-88.946900</v>
+        <v>-88.946899999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>45623.944585</v>
+        <v>45623.944584999997</v>
       </c>
       <c r="AF5" s="1">
         <v>12.673318</v>
       </c>
       <c r="AG5" s="1">
-        <v>1226.030000</v>
+        <v>1226.03</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.401800</v>
+        <v>-85.401799999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>45634.403262</v>
@@ -1357,482 +1773,482 @@
         <v>12.676223</v>
       </c>
       <c r="AL5" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.387800</v>
+        <v>-89.387799999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>45645.023566</v>
+        <v>45645.023566000003</v>
       </c>
       <c r="AP5" s="1">
         <v>12.679173</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.735000</v>
+        <v>-101.735</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>45656.090340</v>
+        <v>45656.090340000002</v>
       </c>
       <c r="AU5" s="1">
         <v>12.682247</v>
       </c>
       <c r="AV5" s="1">
-        <v>1251.930000</v>
+        <v>1251.93</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.487000</v>
+        <v>-121.48699999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>45666.893168</v>
+        <v>45666.893168000002</v>
       </c>
       <c r="AZ5" s="1">
         <v>12.685248</v>
       </c>
       <c r="BA5" s="1">
-        <v>1260.450000</v>
+        <v>1260.45</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.237000</v>
+        <v>-139.23699999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>45677.747619</v>
+        <v>45677.747619000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>12.688263</v>
+        <v>12.688262999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1300.810000</v>
+        <v>1300.81</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.322000</v>
+        <v>-222.322</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>45688.442884</v>
+        <v>45688.442883999996</v>
       </c>
       <c r="BJ5" s="1">
         <v>12.691234</v>
       </c>
       <c r="BK5" s="1">
-        <v>1370.650000</v>
+        <v>1370.65</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.699000</v>
+        <v>-360.69900000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>45699.602870</v>
+        <v>45699.602870000002</v>
       </c>
       <c r="BO5" s="1">
         <v>12.694334</v>
       </c>
       <c r="BP5" s="1">
-        <v>1485.450000</v>
+        <v>1485.45</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-586.612000</v>
+        <v>-586.61199999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>45710.431001</v>
+        <v>45710.431000999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.697342</v>
+        <v>12.697342000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1617.920000</v>
+        <v>1617.92</v>
       </c>
       <c r="BV5" s="1">
-        <v>-842.016000</v>
+        <v>-842.01599999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>45721.177321</v>
+        <v>45721.177321000003</v>
       </c>
       <c r="BY5" s="1">
         <v>12.700327</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1772.000000</v>
+        <v>1772</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1120.370000</v>
+        <v>-1120.3699999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>45732.914186</v>
+        <v>45732.914186000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>12.703587</v>
+        <v>12.703587000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2194.490000</v>
+        <v>2194.4899999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1795.590000</v>
+        <v>-1795.59</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>45561.879693</v>
+        <v>45561.879693000003</v>
       </c>
       <c r="B6" s="1">
-        <v>12.656078</v>
+        <v>12.656078000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1151.850000</v>
+        <v>1151.8499999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-232.597000</v>
+        <v>-232.59700000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>45572.301136</v>
+        <v>45572.301136000002</v>
       </c>
       <c r="G6" s="1">
         <v>12.658973</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.240000</v>
+        <v>1170.24</v>
       </c>
       <c r="I6" s="1">
-        <v>-197.033000</v>
+        <v>-197.03299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>45582.677970</v>
+        <v>45582.677969999997</v>
       </c>
       <c r="L6" s="1">
-        <v>12.661855</v>
+        <v>12.661854999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.900000</v>
+        <v>1195.9000000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-140.892000</v>
+        <v>-140.892</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>45593.173810</v>
+        <v>45593.17381</v>
       </c>
       <c r="Q6" s="1">
         <v>12.664771</v>
       </c>
       <c r="R6" s="1">
-        <v>1203.970000</v>
+        <v>1203.97</v>
       </c>
       <c r="S6" s="1">
-        <v>-122.002000</v>
+        <v>-122.002</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>45603.648329</v>
+        <v>45603.648329000003</v>
       </c>
       <c r="V6" s="1">
-        <v>12.667680</v>
+        <v>12.667680000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1212.060000</v>
+        <v>1212.06</v>
       </c>
       <c r="X6" s="1">
-        <v>-103.942000</v>
+        <v>-103.94199999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>45613.735927</v>
+        <v>45613.735927000002</v>
       </c>
       <c r="AA6" s="1">
         <v>12.670482</v>
       </c>
       <c r="AB6" s="1">
-        <v>1220.920000</v>
+        <v>1220.92</v>
       </c>
       <c r="AC6" s="1">
-        <v>-88.900200</v>
+        <v>-88.900199999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>45624.288809</v>
+        <v>45624.288808999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.673414</v>
+        <v>12.673413999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1226.120000</v>
+        <v>1226.1199999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.411800</v>
+        <v>-85.411799999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>45634.751420</v>
+        <v>45634.751420000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>12.676320</v>
+        <v>12.67632</v>
       </c>
       <c r="AL6" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.378400</v>
+        <v>-89.378399999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>45645.447149</v>
       </c>
       <c r="AP6" s="1">
-        <v>12.679291</v>
+        <v>12.679290999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1241.830000</v>
+        <v>1241.83</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.748000</v>
+        <v>-101.748</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>45656.395343</v>
+        <v>45656.395342999997</v>
       </c>
       <c r="AU6" s="1">
-        <v>12.682332</v>
+        <v>12.682332000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1251.910000</v>
+        <v>1251.9100000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.480000</v>
+        <v>-121.48</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>45667.192256</v>
+        <v>45667.192256000002</v>
       </c>
       <c r="AZ6" s="1">
         <v>12.685331</v>
       </c>
       <c r="BA6" s="1">
-        <v>1260.420000</v>
+        <v>1260.42</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.247000</v>
+        <v>-139.24700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>45678.111683</v>
+        <v>45678.111683000003</v>
       </c>
       <c r="BE6" s="1">
         <v>12.688364</v>
       </c>
       <c r="BF6" s="1">
-        <v>1300.800000</v>
+        <v>1300.8</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.313000</v>
+        <v>-222.31299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>45688.785092</v>
+        <v>45688.785091999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>12.691329</v>
       </c>
       <c r="BK6" s="1">
-        <v>1370.650000</v>
+        <v>1370.65</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.707000</v>
+        <v>-360.70699999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>45700.023447</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.694451</v>
+        <v>12.694451000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1485.430000</v>
+        <v>1485.43</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-586.652000</v>
+        <v>-586.65200000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>45710.856567</v>
+        <v>45710.856567000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>12.697460</v>
+        <v>12.69746</v>
       </c>
       <c r="BU6" s="1">
-        <v>1617.940000</v>
+        <v>1617.94</v>
       </c>
       <c r="BV6" s="1">
-        <v>-841.990000</v>
+        <v>-841.99</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>45722.051805</v>
+        <v>45722.051805000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>12.700570</v>
+        <v>12.700570000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1771.710000</v>
+        <v>1771.71</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1120.510000</v>
+        <v>-1120.51</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>45733.454324</v>
+        <v>45733.454323999998</v>
       </c>
       <c r="CD6" s="1">
         <v>12.703737</v>
       </c>
       <c r="CE6" s="1">
-        <v>2195.970000</v>
+        <v>2195.9699999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1797.730000</v>
+        <v>-1797.73</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>45562.555243</v>
+        <v>45562.555243000003</v>
       </c>
       <c r="B7" s="1">
-        <v>12.656265</v>
+        <v>12.656264999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1152.090000</v>
+        <v>1152.0899999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-232.395000</v>
+        <v>-232.39500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>45572.757489</v>
+        <v>45572.757489000003</v>
       </c>
       <c r="G7" s="1">
-        <v>12.659099</v>
+        <v>12.659098999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1170.160000</v>
+        <v>1170.1600000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-197.001000</v>
+        <v>-197.001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>45583.059360</v>
+        <v>45583.059359999999</v>
       </c>
       <c r="L7" s="1">
         <v>12.661961</v>
       </c>
       <c r="M7" s="1">
-        <v>1195.970000</v>
+        <v>1195.97</v>
       </c>
       <c r="N7" s="1">
-        <v>-140.780000</v>
+        <v>-140.78</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>45593.523487</v>
+        <v>45593.523486999999</v>
       </c>
       <c r="Q7" s="1">
         <v>12.664868</v>
       </c>
       <c r="R7" s="1">
-        <v>1204.000000</v>
+        <v>1204</v>
       </c>
       <c r="S7" s="1">
-        <v>-121.985000</v>
+        <v>-121.985</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>45603.991524</v>
+        <v>45603.991523999997</v>
       </c>
       <c r="V7" s="1">
-        <v>12.667775</v>
+        <v>12.667775000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1212.120000</v>
+        <v>1212.1199999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-103.805000</v>
+        <v>-103.80500000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>45614.085111</v>
@@ -1841,315 +2257,315 @@
         <v>12.670579</v>
       </c>
       <c r="AB7" s="1">
-        <v>1220.700000</v>
+        <v>1220.7</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.004600</v>
+        <v>-89.004599999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>45624.708425</v>
+        <v>45624.708424999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>12.673530</v>
+        <v>12.67353</v>
       </c>
       <c r="AG7" s="1">
-        <v>1225.870000</v>
+        <v>1225.8699999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.418100</v>
+        <v>-85.418099999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>45635.179467</v>
+        <v>45635.179467000002</v>
       </c>
       <c r="AK7" s="1">
         <v>12.676439</v>
       </c>
       <c r="AL7" s="1">
-        <v>1233.640000</v>
+        <v>1233.6400000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.400400</v>
+        <v>-89.400400000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>45645.741806</v>
+        <v>45645.741805999998</v>
       </c>
       <c r="AP7" s="1">
         <v>12.679373</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.772000</v>
+        <v>-101.77200000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>45656.756959</v>
+        <v>45656.756958999998</v>
       </c>
       <c r="AU7" s="1">
         <v>12.682432</v>
       </c>
       <c r="AV7" s="1">
-        <v>1251.900000</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.486000</v>
+        <v>-121.486</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>45667.548916</v>
       </c>
       <c r="AZ7" s="1">
-        <v>12.685430</v>
+        <v>12.68543</v>
       </c>
       <c r="BA7" s="1">
-        <v>1260.440000</v>
+        <v>1260.44</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.222000</v>
+        <v>-139.22200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>45678.471780</v>
+        <v>45678.47178</v>
       </c>
       <c r="BE7" s="1">
         <v>12.688464</v>
       </c>
       <c r="BF7" s="1">
-        <v>1300.760000</v>
+        <v>1300.76</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.288000</v>
+        <v>-222.28800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>45689.560341</v>
+        <v>45689.560340999997</v>
       </c>
       <c r="BJ7" s="1">
         <v>12.691545</v>
       </c>
       <c r="BK7" s="1">
-        <v>1370.640000</v>
+        <v>1370.64</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.695000</v>
+        <v>-360.69499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>45700.842994</v>
+        <v>45700.842993999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>12.694679</v>
+        <v>12.694679000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1485.390000</v>
+        <v>1485.39</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-586.591000</v>
+        <v>-586.59100000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>45711.272214</v>
+        <v>45711.272213999997</v>
       </c>
       <c r="BT7" s="1">
         <v>12.697576</v>
       </c>
       <c r="BU7" s="1">
-        <v>1617.870000</v>
+        <v>1617.87</v>
       </c>
       <c r="BV7" s="1">
-        <v>-841.888000</v>
+        <v>-841.88800000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>45722.474857</v>
+        <v>45722.474857000001</v>
       </c>
       <c r="BY7" s="1">
         <v>12.700687</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1771.890000</v>
+        <v>1771.89</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1120.510000</v>
+        <v>-1120.51</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>45733.992953</v>
+        <v>45733.992953000001</v>
       </c>
       <c r="CD7" s="1">
         <v>12.703887</v>
       </c>
       <c r="CE7" s="1">
-        <v>2196.130000</v>
+        <v>2196.13</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1795.180000</v>
+        <v>-1795.18</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>45562.902970</v>
+        <v>45562.902970000003</v>
       </c>
       <c r="B8" s="1">
         <v>12.656362</v>
       </c>
       <c r="C8" s="1">
-        <v>1151.850000</v>
+        <v>1151.8499999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-232.521000</v>
+        <v>-232.52099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>45572.946431</v>
+        <v>45572.946430999997</v>
       </c>
       <c r="G8" s="1">
-        <v>12.659152</v>
+        <v>12.659152000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1169.910000</v>
+        <v>1169.9100000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-196.342000</v>
+        <v>-196.34200000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>45583.403583</v>
+        <v>45583.403582999999</v>
       </c>
       <c r="L8" s="1">
-        <v>12.662057</v>
+        <v>12.662057000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.830000</v>
+        <v>1195.83</v>
       </c>
       <c r="N8" s="1">
-        <v>-141.104000</v>
+        <v>-141.10400000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>45593.868178</v>
+        <v>45593.868177999997</v>
       </c>
       <c r="Q8" s="1">
         <v>12.664963</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.990000</v>
+        <v>1203.99</v>
       </c>
       <c r="S8" s="1">
-        <v>-122.031000</v>
+        <v>-122.03100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>45604.335252</v>
+        <v>45604.335251999997</v>
       </c>
       <c r="V8" s="1">
         <v>12.667871</v>
       </c>
       <c r="W8" s="1">
-        <v>1212.030000</v>
+        <v>1212.03</v>
       </c>
       <c r="X8" s="1">
-        <v>-103.974000</v>
+        <v>-103.974</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>45614.516631</v>
+        <v>45614.516630999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>12.670699</v>
+        <v>12.670699000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1220.790000</v>
+        <v>1220.79</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.000300</v>
+        <v>-89.000299999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>45624.985689</v>
+        <v>45624.985689000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>12.673607</v>
+        <v>12.673607000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1225.960000</v>
+        <v>1225.96</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.507100</v>
+        <v>-85.507099999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>45635.461718</v>
+        <v>45635.461717999999</v>
       </c>
       <c r="AK8" s="1">
         <v>12.676517</v>
       </c>
       <c r="AL8" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.403600</v>
+        <v>-89.403599999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>45646.105836</v>
+        <v>45646.105836000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>12.679474</v>
+        <v>12.679474000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.753000</v>
+        <v>-101.753</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>45657.124462</v>
@@ -2158,88 +2574,88 @@
         <v>12.682535</v>
       </c>
       <c r="AV8" s="1">
-        <v>1251.940000</v>
+        <v>1251.94</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.465000</v>
+        <v>-121.465</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>45667.908016</v>
+        <v>45667.908016000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.685530</v>
+        <v>12.68553</v>
       </c>
       <c r="BA8" s="1">
-        <v>1260.430000</v>
+        <v>1260.43</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.271000</v>
+        <v>-139.27099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>45679.192467</v>
+        <v>45679.192467000001</v>
       </c>
       <c r="BE8" s="1">
         <v>12.688665</v>
       </c>
       <c r="BF8" s="1">
-        <v>1300.750000</v>
+        <v>1300.75</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.275000</v>
+        <v>-222.27500000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>45689.935346</v>
+        <v>45689.935345999998</v>
       </c>
       <c r="BJ8" s="1">
         <v>12.691649</v>
       </c>
       <c r="BK8" s="1">
-        <v>1370.640000</v>
+        <v>1370.64</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.758000</v>
+        <v>-360.75799999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>45701.258520</v>
+        <v>45701.258520000003</v>
       </c>
       <c r="BO8" s="1">
         <v>12.694794</v>
       </c>
       <c r="BP8" s="1">
-        <v>1485.390000</v>
+        <v>1485.39</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-586.656000</v>
+        <v>-586.65599999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>45711.703265</v>
+        <v>45711.703264999996</v>
       </c>
       <c r="BT8" s="1">
         <v>12.697695</v>
       </c>
       <c r="BU8" s="1">
-        <v>1617.970000</v>
+        <v>1617.97</v>
       </c>
       <c r="BV8" s="1">
-        <v>-841.969000</v>
+        <v>-841.96900000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>45723.231281</v>
@@ -2248,120 +2664,120 @@
         <v>12.700898</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1771.930000</v>
+        <v>1771.93</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1120.550000</v>
+        <v>-1120.55</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>45734.836695</v>
+        <v>45734.836694999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>12.704121</v>
+        <v>12.704121000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2196.550000</v>
+        <v>2196.5500000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1797.090000</v>
+        <v>-1797.09</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>45563.253114</v>
+        <v>45563.253113999999</v>
       </c>
       <c r="B9" s="1">
         <v>12.656459</v>
       </c>
       <c r="C9" s="1">
-        <v>1152.100000</v>
+        <v>1152.0999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-232.773000</v>
+        <v>-232.773</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>45573.289206</v>
+        <v>45573.289206000001</v>
       </c>
       <c r="G9" s="1">
-        <v>12.659247</v>
+        <v>12.659247000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1169.870000</v>
+        <v>1169.8699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-197.335000</v>
+        <v>-197.33500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>45583.749296</v>
+        <v>45583.749296000002</v>
       </c>
       <c r="L9" s="1">
         <v>12.662153</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.790000</v>
+        <v>1195.79</v>
       </c>
       <c r="N9" s="1">
-        <v>-141.009000</v>
+        <v>-141.00899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>45594.300194</v>
+        <v>45594.300194000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.665083</v>
+        <v>12.665082999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1204.030000</v>
+        <v>1204.03</v>
       </c>
       <c r="S9" s="1">
-        <v>-121.955000</v>
+        <v>-121.955</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>45604.757843</v>
+        <v>45604.757842999999</v>
       </c>
       <c r="V9" s="1">
-        <v>12.667988</v>
+        <v>12.667987999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1212.200000</v>
+        <v>1212.2</v>
       </c>
       <c r="X9" s="1">
-        <v>-103.840000</v>
+        <v>-103.84</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>45614.784998</v>
+        <v>45614.784998000003</v>
       </c>
       <c r="AA9" s="1">
         <v>12.670774</v>
       </c>
       <c r="AB9" s="1">
-        <v>1220.750000</v>
+        <v>1220.75</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.019600</v>
+        <v>-89.019599999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>45625.328425</v>
@@ -2370,43 +2786,43 @@
         <v>12.673702</v>
       </c>
       <c r="AG9" s="1">
-        <v>1226.240000</v>
+        <v>1226.24</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.520200</v>
+        <v>-85.520200000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>45635.809882</v>
+        <v>45635.809882000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>12.676614</v>
+        <v>12.676614000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.386400</v>
+        <v>-89.386399999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>45646.459485</v>
+        <v>45646.459484999999</v>
       </c>
       <c r="AP9" s="1">
         <v>12.679572</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1241.820000</v>
+        <v>1241.82</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.791000</v>
+        <v>-101.791</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>45657.850605</v>
@@ -2415,210 +2831,210 @@
         <v>12.682736</v>
       </c>
       <c r="AV9" s="1">
-        <v>1251.930000</v>
+        <v>1251.93</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.474000</v>
+        <v>-121.474</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>45668.626223</v>
+        <v>45668.626222999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>12.685730</v>
+        <v>12.68573</v>
       </c>
       <c r="BA9" s="1">
-        <v>1260.460000</v>
+        <v>1260.46</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.252000</v>
+        <v>-139.25200000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>45679.554048</v>
+        <v>45679.554047999998</v>
       </c>
       <c r="BE9" s="1">
         <v>12.688765</v>
       </c>
       <c r="BF9" s="1">
-        <v>1300.750000</v>
+        <v>1300.75</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.283000</v>
+        <v>-222.28299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>45690.311779</v>
+        <v>45690.311779000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>12.691753</v>
       </c>
       <c r="BK9" s="1">
-        <v>1370.650000</v>
+        <v>1370.65</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.693000</v>
+        <v>-360.69299999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>45701.657763</v>
+        <v>45701.657763000003</v>
       </c>
       <c r="BO9" s="1">
         <v>12.694905</v>
       </c>
       <c r="BP9" s="1">
-        <v>1485.470000</v>
+        <v>1485.47</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-586.628000</v>
+        <v>-586.62800000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>45712.427397</v>
+        <v>45712.427396999999</v>
       </c>
       <c r="BT9" s="1">
         <v>12.697896</v>
       </c>
       <c r="BU9" s="1">
-        <v>1618.020000</v>
+        <v>1618.02</v>
       </c>
       <c r="BV9" s="1">
-        <v>-841.938000</v>
+        <v>-841.93799999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>45723.350790</v>
+        <v>45723.350789999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.700931</v>
+        <v>12.700931000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1772.050000</v>
+        <v>1772.05</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1120.530000</v>
+        <v>-1120.53</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>45735.071255</v>
+        <v>45735.071255000003</v>
       </c>
       <c r="CD9" s="1">
         <v>12.704186</v>
       </c>
       <c r="CE9" s="1">
-        <v>2196.600000</v>
+        <v>2196.6</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1797.030000</v>
+        <v>-1797.03</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>45563.594857</v>
+        <v>45563.594856999996</v>
       </c>
       <c r="B10" s="1">
         <v>12.656554</v>
       </c>
       <c r="C10" s="1">
-        <v>1152.050000</v>
+        <v>1152.05</v>
       </c>
       <c r="D10" s="1">
-        <v>-232.501000</v>
+        <v>-232.501</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>45573.710268</v>
+        <v>45573.710268000003</v>
       </c>
       <c r="G10" s="1">
         <v>12.659364</v>
       </c>
       <c r="H10" s="1">
-        <v>1170.420000</v>
+        <v>1170.42</v>
       </c>
       <c r="I10" s="1">
-        <v>-197.663000</v>
+        <v>-197.66300000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>45584.172910</v>
+        <v>45584.172910000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.662270</v>
+        <v>12.662269999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.870000</v>
+        <v>1195.8699999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-140.971000</v>
+        <v>-140.971</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>45594.569026</v>
+        <v>45594.569025999997</v>
       </c>
       <c r="Q10" s="1">
         <v>12.665158</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.980000</v>
+        <v>1203.98</v>
       </c>
       <c r="S10" s="1">
-        <v>-121.969000</v>
+        <v>-121.96899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>45605.030644</v>
+        <v>45605.030643999999</v>
       </c>
       <c r="V10" s="1">
-        <v>12.668064</v>
+        <v>12.668063999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1212.110000</v>
+        <v>1212.1099999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-103.890000</v>
+        <v>-103.89</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>45615.131701</v>
+        <v>45615.131700999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>12.670870</v>
+        <v>12.670870000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1220.690000</v>
+        <v>1220.69</v>
       </c>
       <c r="AC10" s="1">
-        <v>-88.978100</v>
+        <v>-88.978099999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>45625.673144</v>
@@ -2627,315 +3043,315 @@
         <v>12.673798</v>
       </c>
       <c r="AG10" s="1">
-        <v>1226.060000</v>
+        <v>1226.06</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.296400</v>
+        <v>-85.296400000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>45636.161051</v>
+        <v>45636.161051000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>12.676711</v>
+        <v>12.676710999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1233.630000</v>
+        <v>1233.6300000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.371300</v>
+        <v>-89.371300000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>45647.181167</v>
+        <v>45647.181167000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>12.679773</v>
+        <v>12.679773000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1241.780000</v>
+        <v>1241.78</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.760000</v>
+        <v>-101.76</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>45658.242444</v>
+        <v>45658.242444000003</v>
       </c>
       <c r="AU10" s="1">
         <v>12.682845</v>
       </c>
       <c r="AV10" s="1">
-        <v>1251.920000</v>
+        <v>1251.92</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.482000</v>
+        <v>-121.482</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>45668.983310</v>
+        <v>45668.983310000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>12.685829</v>
       </c>
       <c r="BA10" s="1">
-        <v>1260.430000</v>
+        <v>1260.43</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.259000</v>
+        <v>-139.25899999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>45679.914144</v>
+        <v>45679.914144000002</v>
       </c>
       <c r="BE10" s="1">
         <v>12.688865</v>
       </c>
       <c r="BF10" s="1">
-        <v>1300.720000</v>
+        <v>1300.72</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.342000</v>
+        <v>-222.34200000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>45691.019570</v>
+        <v>45691.019569999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>12.691950</v>
+        <v>12.69195</v>
       </c>
       <c r="BK10" s="1">
-        <v>1370.630000</v>
+        <v>1370.63</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.749000</v>
+        <v>-360.74900000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>45702.379444</v>
+        <v>45702.379443999998</v>
       </c>
       <c r="BO10" s="1">
         <v>12.695105</v>
       </c>
       <c r="BP10" s="1">
-        <v>1485.440000</v>
+        <v>1485.44</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-586.615000</v>
+        <v>-586.61500000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>45712.546934</v>
+        <v>45712.546933999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>12.697930</v>
+        <v>12.697929999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1617.930000</v>
+        <v>1617.93</v>
       </c>
       <c r="BV10" s="1">
-        <v>-841.962000</v>
+        <v>-841.96199999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>45723.793223</v>
+        <v>45723.793223000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>12.701054</v>
+        <v>12.701053999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1771.880000</v>
+        <v>1771.88</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1120.560000</v>
+        <v>-1120.56</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>45735.582630</v>
+        <v>45735.582629999997</v>
       </c>
       <c r="CD10" s="1">
         <v>12.704329</v>
       </c>
       <c r="CE10" s="1">
-        <v>2196.220000</v>
+        <v>2196.2199999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1795.080000</v>
+        <v>-1795.08</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>45564.023898</v>
+        <v>45564.023897999999</v>
       </c>
       <c r="B11" s="1">
         <v>12.656673</v>
       </c>
       <c r="C11" s="1">
-        <v>1151.910000</v>
+        <v>1151.9100000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-232.383000</v>
+        <v>-232.38300000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>45574.007868</v>
+        <v>45574.007868000001</v>
       </c>
       <c r="G11" s="1">
         <v>12.659447</v>
       </c>
       <c r="H11" s="1">
-        <v>1170.350000</v>
+        <v>1170.3499999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-197.468000</v>
+        <v>-197.46799999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>45584.442240</v>
+        <v>45584.442239999997</v>
       </c>
       <c r="L11" s="1">
         <v>12.662345</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.730000</v>
+        <v>1195.73</v>
       </c>
       <c r="N11" s="1">
-        <v>-141.097000</v>
+        <v>-141.09700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>45594.917743</v>
+        <v>45594.917742999998</v>
       </c>
       <c r="Q11" s="1">
         <v>12.665255</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.920000</v>
+        <v>1203.92</v>
       </c>
       <c r="S11" s="1">
-        <v>-121.939000</v>
+        <v>-121.93899999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>45605.375363</v>
+        <v>45605.375362999999</v>
       </c>
       <c r="V11" s="1">
-        <v>12.668160</v>
+        <v>12.66816</v>
       </c>
       <c r="W11" s="1">
-        <v>1212.170000</v>
+        <v>1212.17</v>
       </c>
       <c r="X11" s="1">
-        <v>-103.868000</v>
+        <v>-103.86799999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>45615.480885</v>
+        <v>45615.480884999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>12.670967</v>
+        <v>12.670966999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1220.820000</v>
+        <v>1220.82</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.004400</v>
+        <v>-89.004400000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>45626.358616</v>
+        <v>45626.358615999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>12.673989</v>
+        <v>12.673989000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1225.990000</v>
+        <v>1225.99</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.360900</v>
+        <v>-85.360900000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>45636.856481</v>
+        <v>45636.856481000003</v>
       </c>
       <c r="AK11" s="1">
         <v>12.676905</v>
       </c>
       <c r="AL11" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.378900</v>
+        <v>-89.378900000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>45647.570026</v>
+        <v>45647.570026000001</v>
       </c>
       <c r="AP11" s="1">
         <v>12.679881</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.780000</v>
+        <v>-101.78</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>45658.607037</v>
+        <v>45658.607037000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>12.682946</v>
+        <v>12.682945999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1251.910000</v>
+        <v>1251.9100000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.489000</v>
+        <v>-121.489</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>45669.342911</v>
@@ -2944,106 +3360,106 @@
         <v>12.685929</v>
       </c>
       <c r="BA11" s="1">
-        <v>1260.440000</v>
+        <v>1260.44</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.233000</v>
+        <v>-139.233</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>45680.598655</v>
+        <v>45680.598655000002</v>
       </c>
       <c r="BE11" s="1">
         <v>12.689055</v>
       </c>
       <c r="BF11" s="1">
-        <v>1300.750000</v>
+        <v>1300.75</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.290000</v>
+        <v>-222.29</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>45691.460644</v>
+        <v>45691.460643999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>12.692072</v>
       </c>
       <c r="BK11" s="1">
-        <v>1370.680000</v>
+        <v>1370.68</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.719000</v>
+        <v>-360.71899999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>45702.491539</v>
+        <v>45702.491539000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>12.695137</v>
+        <v>12.695137000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1485.440000</v>
+        <v>1485.44</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-586.643000</v>
+        <v>-586.64300000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>45712.982452</v>
+        <v>45712.982451999997</v>
       </c>
       <c r="BT11" s="1">
         <v>12.698051</v>
       </c>
       <c r="BU11" s="1">
-        <v>1617.900000</v>
+        <v>1617.9</v>
       </c>
       <c r="BV11" s="1">
-        <v>-841.900000</v>
+        <v>-841.9</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>45724.211381</v>
+        <v>45724.211381000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>12.701170</v>
+        <v>12.701169999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1772.040000</v>
+        <v>1772.04</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1120.590000</v>
+        <v>-1120.5899999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>45736.112358</v>
+        <v>45736.112357999998</v>
       </c>
       <c r="CD11" s="1">
         <v>12.704476</v>
       </c>
       <c r="CE11" s="1">
-        <v>2194.710000</v>
+        <v>2194.71</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1797.290000</v>
+        <v>-1797.29</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>45564.294253</v>
       </c>
@@ -3051,133 +3467,133 @@
         <v>12.656748</v>
       </c>
       <c r="C12" s="1">
-        <v>1151.800000</v>
+        <v>1151.8</v>
       </c>
       <c r="D12" s="1">
-        <v>-232.804000</v>
+        <v>-232.804</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>45574.351132</v>
+        <v>45574.351132000003</v>
       </c>
       <c r="G12" s="1">
         <v>12.659542</v>
       </c>
       <c r="H12" s="1">
-        <v>1169.800000</v>
+        <v>1169.8</v>
       </c>
       <c r="I12" s="1">
-        <v>-196.824000</v>
+        <v>-196.82400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>45584.783949</v>
+        <v>45584.783948999997</v>
       </c>
       <c r="L12" s="1">
-        <v>12.662440</v>
+        <v>12.66244</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.650000</v>
+        <v>1195.6500000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-140.814000</v>
+        <v>-140.81399999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>45595.268423</v>
+        <v>45595.268423000001</v>
       </c>
       <c r="Q12" s="1">
         <v>12.665352</v>
       </c>
       <c r="R12" s="1">
-        <v>1204.010000</v>
+        <v>1204.01</v>
       </c>
       <c r="S12" s="1">
-        <v>-121.907000</v>
+        <v>-121.907</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>45605.941831</v>
+        <v>45605.941830999996</v>
       </c>
       <c r="V12" s="1">
         <v>12.668317</v>
       </c>
       <c r="W12" s="1">
-        <v>1212.130000</v>
+        <v>1212.1300000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-103.752000</v>
+        <v>-103.752</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>45616.179220</v>
+        <v>45616.179219999998</v>
       </c>
       <c r="AA12" s="1">
         <v>12.671161</v>
       </c>
       <c r="AB12" s="1">
-        <v>1220.750000</v>
+        <v>1220.75</v>
       </c>
       <c r="AC12" s="1">
-        <v>-88.974700</v>
+        <v>-88.974699999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>45626.703371</v>
+        <v>45626.703371000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>12.674084</v>
+        <v>12.674084000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1226.070000</v>
+        <v>1226.07</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.433800</v>
+        <v>-85.433800000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>45637.203146</v>
       </c>
       <c r="AK12" s="1">
-        <v>12.677001</v>
+        <v>12.677001000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.400800</v>
+        <v>-89.400800000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>45647.930629</v>
+        <v>45647.930629000002</v>
       </c>
       <c r="AP12" s="1">
         <v>12.679981</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.766000</v>
+        <v>-101.76600000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>45659.279121</v>
@@ -3186,121 +3602,121 @@
         <v>12.683133</v>
       </c>
       <c r="AV12" s="1">
-        <v>1251.920000</v>
+        <v>1251.92</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.490000</v>
+        <v>-121.49</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>45670.007581</v>
+        <v>45670.007580999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>12.686113</v>
+        <v>12.686113000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1260.430000</v>
+        <v>1260.43</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.242000</v>
+        <v>-139.24199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>45681.028174</v>
+        <v>45681.028173999999</v>
       </c>
       <c r="BE12" s="1">
         <v>12.689174</v>
       </c>
       <c r="BF12" s="1">
-        <v>1300.770000</v>
+        <v>1300.77</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.316000</v>
+        <v>-222.316</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>45691.866737</v>
+        <v>45691.866736999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>12.692185</v>
       </c>
       <c r="BK12" s="1">
-        <v>1370.640000</v>
+        <v>1370.64</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.739000</v>
+        <v>-360.73899999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>45702.898755</v>
+        <v>45702.898755000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>12.695250</v>
+        <v>12.69525</v>
       </c>
       <c r="BP12" s="1">
-        <v>1485.460000</v>
+        <v>1485.46</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-586.595000</v>
+        <v>-586.59500000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>45713.409973</v>
+        <v>45713.409973000002</v>
       </c>
       <c r="BT12" s="1">
         <v>12.698169</v>
       </c>
       <c r="BU12" s="1">
-        <v>1618.080000</v>
+        <v>1618.08</v>
       </c>
       <c r="BV12" s="1">
-        <v>-841.994000</v>
+        <v>-841.99400000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>45724.642907</v>
+        <v>45724.642907000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.701290</v>
+        <v>12.70129</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1772.020000</v>
+        <v>1772.02</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1120.640000</v>
+        <v>-1120.6400000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>45736.647578</v>
+        <v>45736.647577999996</v>
       </c>
       <c r="CD12" s="1">
-        <v>12.704624</v>
+        <v>12.704624000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2196.880000</v>
+        <v>2196.88</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1796.030000</v>
+        <v>-1796.03</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>45564.633016</v>
       </c>
@@ -3308,43 +3724,43 @@
         <v>12.656843</v>
       </c>
       <c r="C13" s="1">
-        <v>1151.710000</v>
+        <v>1151.71</v>
       </c>
       <c r="D13" s="1">
-        <v>-232.772000</v>
+        <v>-232.77199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>45574.694344</v>
+        <v>45574.694344000003</v>
       </c>
       <c r="G13" s="1">
         <v>12.659637</v>
       </c>
       <c r="H13" s="1">
-        <v>1170.510000</v>
+        <v>1170.51</v>
       </c>
       <c r="I13" s="1">
-        <v>-196.990000</v>
+        <v>-196.99</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>45585.132141</v>
+        <v>45585.132141000002</v>
       </c>
       <c r="L13" s="1">
         <v>12.662537</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.800000</v>
+        <v>1195.8</v>
       </c>
       <c r="N13" s="1">
-        <v>-141.131000</v>
+        <v>-141.131</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>45595.960302</v>
@@ -3353,225 +3769,225 @@
         <v>12.665545</v>
       </c>
       <c r="R13" s="1">
-        <v>1204.090000</v>
+        <v>1204.0899999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-121.933000</v>
+        <v>-121.93300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>45606.059841</v>
+        <v>45606.059841000002</v>
       </c>
       <c r="V13" s="1">
-        <v>12.668350</v>
+        <v>12.66835</v>
       </c>
       <c r="W13" s="1">
-        <v>1212.170000</v>
+        <v>1212.17</v>
       </c>
       <c r="X13" s="1">
-        <v>-103.870000</v>
+        <v>-103.87</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>45616.524437</v>
       </c>
       <c r="AA13" s="1">
-        <v>12.671257</v>
+        <v>12.671257000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1220.840000</v>
+        <v>1220.8399999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-88.928800</v>
+        <v>-88.928799999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>45627.047093</v>
+        <v>45627.047093000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>12.674180</v>
+        <v>12.67418</v>
       </c>
       <c r="AG13" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.235200</v>
+        <v>-85.235200000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>45637.553319</v>
+        <v>45637.553318999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>12.677098</v>
+        <v>12.677098000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1233.590000</v>
+        <v>1233.5899999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.380700</v>
+        <v>-89.380700000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>45648.597737</v>
+        <v>45648.597736999996</v>
       </c>
       <c r="AP13" s="1">
         <v>12.680166</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.753000</v>
+        <v>-101.753</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>45659.735435</v>
+        <v>45659.735435000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>12.683260</v>
+        <v>12.683260000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1251.920000</v>
+        <v>1251.92</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.485000</v>
+        <v>-121.485</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>45670.420220</v>
+        <v>45670.42022</v>
       </c>
       <c r="AZ13" s="1">
         <v>12.686228</v>
       </c>
       <c r="BA13" s="1">
-        <v>1260.450000</v>
+        <v>1260.45</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.279000</v>
+        <v>-139.279</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>45681.387759</v>
+        <v>45681.387758999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>12.689274</v>
+        <v>12.689273999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1300.770000</v>
+        <v>1300.77</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.292000</v>
+        <v>-222.292</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>45692.239233</v>
       </c>
       <c r="BJ13" s="1">
-        <v>12.692289</v>
+        <v>12.692289000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1370.640000</v>
+        <v>1370.64</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.756000</v>
+        <v>-360.75599999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>45703.295552</v>
+        <v>45703.295552000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.695360</v>
+        <v>12.695360000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1485.480000</v>
+        <v>1485.48</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-586.633000</v>
+        <v>-586.63300000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>45713.845460</v>
+        <v>45713.845459999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>12.698290</v>
+        <v>12.69829</v>
       </c>
       <c r="BU13" s="1">
-        <v>1617.870000</v>
+        <v>1617.87</v>
       </c>
       <c r="BV13" s="1">
-        <v>-841.853000</v>
+        <v>-841.85299999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>45725.088773</v>
+        <v>45725.088773000003</v>
       </c>
       <c r="BY13" s="1">
         <v>12.701414</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1771.970000</v>
+        <v>1771.97</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1120.460000</v>
+        <v>-1120.46</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>45737.191156</v>
+        <v>45737.191156000001</v>
       </c>
       <c r="CD13" s="1">
         <v>12.704775</v>
       </c>
       <c r="CE13" s="1">
-        <v>2194.270000</v>
+        <v>2194.27</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1795.920000</v>
+        <v>-1795.92</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>45564.975255</v>
+        <v>45564.975254999998</v>
       </c>
       <c r="B14" s="1">
         <v>12.656938</v>
       </c>
       <c r="C14" s="1">
-        <v>1151.990000</v>
+        <v>1151.99</v>
       </c>
       <c r="D14" s="1">
-        <v>-232.530000</v>
+        <v>-232.53</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>45575.383275</v>
@@ -3580,73 +3996,73 @@
         <v>12.659829</v>
       </c>
       <c r="H14" s="1">
-        <v>1170.020000</v>
+        <v>1170.02</v>
       </c>
       <c r="I14" s="1">
-        <v>-196.798000</v>
+        <v>-196.798</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>45585.826076</v>
+        <v>45585.826075999998</v>
       </c>
       <c r="L14" s="1">
-        <v>12.662729</v>
+        <v>12.662729000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.700000</v>
+        <v>1195.7</v>
       </c>
       <c r="N14" s="1">
-        <v>-141.278000</v>
+        <v>-141.27799999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>45596.310510</v>
+        <v>45596.310510000003</v>
       </c>
       <c r="Q14" s="1">
         <v>12.665642</v>
       </c>
       <c r="R14" s="1">
-        <v>1204.050000</v>
+        <v>1204.05</v>
       </c>
       <c r="S14" s="1">
-        <v>-121.971000</v>
+        <v>-121.971</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>45606.404065</v>
+        <v>45606.404065000002</v>
       </c>
       <c r="V14" s="1">
-        <v>12.668446</v>
+        <v>12.668445999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1212.150000</v>
+        <v>1212.1500000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-103.987000</v>
+        <v>-103.98699999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>45616.875603</v>
       </c>
       <c r="AA14" s="1">
-        <v>12.671354</v>
+        <v>12.671353999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1220.790000</v>
+        <v>1220.79</v>
       </c>
       <c r="AC14" s="1">
-        <v>-88.972400</v>
+        <v>-88.972399999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>45627.705254</v>
@@ -3655,13 +4071,13 @@
         <v>12.674363</v>
       </c>
       <c r="AG14" s="1">
-        <v>1225.970000</v>
+        <v>1225.97</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.373700</v>
+        <v>-85.373699999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>45638.215312</v>
@@ -3670,13 +4086,13 @@
         <v>12.677282</v>
       </c>
       <c r="AL14" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.403700</v>
+        <v>-89.403700000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>45649.047112</v>
@@ -3685,13 +4101,13 @@
         <v>12.680291</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.753000</v>
+        <v>-101.753</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>45660.099962</v>
@@ -3700,58 +4116,58 @@
         <v>12.683361</v>
       </c>
       <c r="AV14" s="1">
-        <v>1251.910000</v>
+        <v>1251.9100000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.471000</v>
+        <v>-121.471</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>45670.806145</v>
+        <v>45670.806145000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.686335</v>
       </c>
       <c r="BA14" s="1">
-        <v>1260.460000</v>
+        <v>1260.46</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.239000</v>
+        <v>-139.239</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>45681.736483</v>
+        <v>45681.736483000001</v>
       </c>
       <c r="BE14" s="1">
         <v>12.689371</v>
       </c>
       <c r="BF14" s="1">
-        <v>1300.710000</v>
+        <v>1300.71</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.304000</v>
+        <v>-222.304</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>45692.665296</v>
+        <v>45692.665295999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>12.692407</v>
+        <v>12.692406999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1370.630000</v>
+        <v>1370.63</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.727000</v>
+        <v>-360.72699999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>45703.722145</v>
@@ -3760,362 +4176,362 @@
         <v>12.695478</v>
       </c>
       <c r="BP14" s="1">
-        <v>1485.430000</v>
+        <v>1485.43</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-586.677000</v>
+        <v>-586.67700000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>45714.253700</v>
+        <v>45714.253700000001</v>
       </c>
       <c r="BT14" s="1">
         <v>12.698404</v>
       </c>
       <c r="BU14" s="1">
-        <v>1618.030000</v>
+        <v>1618.03</v>
       </c>
       <c r="BV14" s="1">
-        <v>-841.832000</v>
+        <v>-841.83199999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>45725.506899</v>
       </c>
       <c r="BY14" s="1">
-        <v>12.701530</v>
+        <v>12.70153</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1772.030000</v>
+        <v>1772.03</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1120.750000</v>
+        <v>-1120.75</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>45737.726836</v>
+        <v>45737.726836000002</v>
       </c>
       <c r="CD14" s="1">
         <v>12.704924</v>
       </c>
       <c r="CE14" s="1">
-        <v>2196.570000</v>
+        <v>2196.5700000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1797.280000</v>
+        <v>-1797.28</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>45565.657753</v>
       </c>
       <c r="B15" s="1">
-        <v>12.657127</v>
+        <v>12.657126999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1151.710000</v>
+        <v>1151.71</v>
       </c>
       <c r="D15" s="1">
-        <v>-232.441000</v>
+        <v>-232.441</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>45575.727530</v>
+        <v>45575.727529999996</v>
       </c>
       <c r="G15" s="1">
         <v>12.659924</v>
       </c>
       <c r="H15" s="1">
-        <v>1170.630000</v>
+        <v>1170.6300000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-195.986000</v>
+        <v>-195.98599999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>45586.171260</v>
+        <v>45586.171260000003</v>
       </c>
       <c r="L15" s="1">
         <v>12.662825</v>
       </c>
       <c r="M15" s="1">
-        <v>1195.670000</v>
+        <v>1195.67</v>
       </c>
       <c r="N15" s="1">
-        <v>-140.918000</v>
+        <v>-140.91800000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>45596.660158</v>
+        <v>45596.660157999999</v>
       </c>
       <c r="Q15" s="1">
         <v>12.665739</v>
       </c>
       <c r="R15" s="1">
-        <v>1204.060000</v>
+        <v>1204.06</v>
       </c>
       <c r="S15" s="1">
-        <v>-121.938000</v>
+        <v>-121.938</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>45607.053355</v>
+        <v>45607.053354999996</v>
       </c>
       <c r="V15" s="1">
         <v>12.668626</v>
       </c>
       <c r="W15" s="1">
-        <v>1212.160000</v>
+        <v>1212.1600000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-104.015000</v>
+        <v>-104.015</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>45617.534343</v>
+        <v>45617.534342999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>12.671537</v>
+        <v>12.671537000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1220.730000</v>
+        <v>1220.73</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.007100</v>
+        <v>-89.007099999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>45628.086214</v>
+        <v>45628.086214000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>12.674468</v>
+        <v>12.674467999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1226.040000</v>
+        <v>1226.04</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.542200</v>
+        <v>-85.542199999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>45638.597401</v>
+        <v>45638.597400999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>12.677388</v>
+        <v>12.677388000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1233.630000</v>
+        <v>1233.6300000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.392600</v>
+        <v>-89.392600000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>45649.408696</v>
+        <v>45649.408695999999</v>
       </c>
       <c r="AP15" s="1">
         <v>12.680391</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.755000</v>
+        <v>-101.755</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>45660.466010</v>
+        <v>45660.466009999996</v>
       </c>
       <c r="AU15" s="1">
         <v>12.683463</v>
       </c>
       <c r="AV15" s="1">
-        <v>1251.910000</v>
+        <v>1251.9100000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.474000</v>
+        <v>-121.474</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>45671.162731</v>
+        <v>45671.162730999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>12.686434</v>
       </c>
       <c r="BA15" s="1">
-        <v>1260.400000</v>
+        <v>1260.4000000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.262000</v>
+        <v>-139.262</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>45682.163046</v>
+        <v>45682.163046000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>12.689490</v>
+        <v>12.689489999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1300.770000</v>
+        <v>1300.77</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.311000</v>
+        <v>-222.31100000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>45693.015007</v>
+        <v>45693.015007000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>12.692504</v>
       </c>
       <c r="BK15" s="1">
-        <v>1370.640000</v>
+        <v>1370.64</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.710000</v>
+        <v>-360.71</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>45704.111968</v>
+        <v>45704.111967999997</v>
       </c>
       <c r="BO15" s="1">
         <v>12.695587</v>
       </c>
       <c r="BP15" s="1">
-        <v>1485.480000</v>
+        <v>1485.48</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-586.644000</v>
+        <v>-586.64400000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>45714.684227</v>
+        <v>45714.684226999998</v>
       </c>
       <c r="BT15" s="1">
         <v>12.698523</v>
       </c>
       <c r="BU15" s="1">
-        <v>1618.020000</v>
+        <v>1618.02</v>
       </c>
       <c r="BV15" s="1">
-        <v>-841.852000</v>
+        <v>-841.85199999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>45725.954788</v>
+        <v>45725.954788000003</v>
       </c>
       <c r="BY15" s="1">
         <v>12.701654</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1772.040000</v>
+        <v>1772.04</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1120.500000</v>
+        <v>-1120.5</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>45738.608723</v>
+        <v>45738.608722999998</v>
       </c>
       <c r="CD15" s="1">
         <v>12.705169</v>
       </c>
       <c r="CE15" s="1">
-        <v>2194.330000</v>
+        <v>2194.33</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1796.830000</v>
+        <v>-1796.83</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>45566.002470</v>
+        <v>45566.002469999999</v>
       </c>
       <c r="B16" s="1">
         <v>12.657223</v>
       </c>
       <c r="C16" s="1">
-        <v>1152.240000</v>
+        <v>1152.24</v>
       </c>
       <c r="D16" s="1">
-        <v>-232.439000</v>
+        <v>-232.43899999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>45576.073744</v>
+        <v>45576.073744000001</v>
       </c>
       <c r="G16" s="1">
-        <v>12.660020</v>
+        <v>12.660019999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1170.580000</v>
+        <v>1170.58</v>
       </c>
       <c r="I16" s="1">
-        <v>-196.743000</v>
+        <v>-196.74299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>45586.517995</v>
+        <v>45586.517995000002</v>
       </c>
       <c r="L16" s="1">
         <v>12.662922</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.730000</v>
+        <v>1195.73</v>
       </c>
       <c r="N16" s="1">
-        <v>-140.871000</v>
+        <v>-140.87100000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>45597.317853</v>
@@ -4124,43 +4540,43 @@
         <v>12.665922</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.970000</v>
+        <v>1203.97</v>
       </c>
       <c r="S16" s="1">
-        <v>-121.876000</v>
+        <v>-121.876</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>45607.434759</v>
+        <v>45607.434759000003</v>
       </c>
       <c r="V16" s="1">
         <v>12.668732</v>
       </c>
       <c r="W16" s="1">
-        <v>1212.090000</v>
+        <v>1212.0899999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-103.810000</v>
+        <v>-103.81</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>45617.921206</v>
+        <v>45617.921205999999</v>
       </c>
       <c r="AA16" s="1">
         <v>12.671645</v>
       </c>
       <c r="AB16" s="1">
-        <v>1220.710000</v>
+        <v>1220.71</v>
       </c>
       <c r="AC16" s="1">
-        <v>-88.972700</v>
+        <v>-88.972700000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>45628.431396</v>
@@ -4169,180 +4585,180 @@
         <v>12.674564</v>
       </c>
       <c r="AG16" s="1">
-        <v>1225.930000</v>
+        <v>1225.93</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.321100</v>
+        <v>-85.321100000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>45638.946581</v>
+        <v>45638.946580999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>12.677485</v>
+        <v>12.677485000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.388700</v>
+        <v>-89.3887</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>45649.766343</v>
+        <v>45649.766343000003</v>
       </c>
       <c r="AP16" s="1">
         <v>12.680491</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.766000</v>
+        <v>-101.76600000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>45660.894553</v>
+        <v>45660.894552999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>12.683582</v>
+        <v>12.683581999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1251.920000</v>
+        <v>1251.92</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.483000</v>
+        <v>-121.483</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>45671.882959</v>
+        <v>45671.882959000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>12.686634</v>
       </c>
       <c r="BA16" s="1">
-        <v>1260.420000</v>
+        <v>1260.42</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.229000</v>
+        <v>-139.22900000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>45682.470028</v>
+        <v>45682.470028000003</v>
       </c>
       <c r="BE16" s="1">
         <v>12.689575</v>
       </c>
       <c r="BF16" s="1">
-        <v>1300.770000</v>
+        <v>1300.77</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.315000</v>
+        <v>-222.315</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>45693.395406</v>
+        <v>45693.395406000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>12.692610</v>
+        <v>12.69261</v>
       </c>
       <c r="BK16" s="1">
-        <v>1370.640000</v>
+        <v>1370.64</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.702000</v>
+        <v>-360.702</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>45704.531584</v>
+        <v>45704.531583999997</v>
       </c>
       <c r="BO16" s="1">
         <v>12.695703</v>
       </c>
       <c r="BP16" s="1">
-        <v>1485.470000</v>
+        <v>1485.47</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-586.637000</v>
+        <v>-586.63699999999994</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>45715.093394</v>
+        <v>45715.093394000003</v>
       </c>
       <c r="BT16" s="1">
         <v>12.698637</v>
       </c>
       <c r="BU16" s="1">
-        <v>1618.060000</v>
+        <v>1618.06</v>
       </c>
       <c r="BV16" s="1">
-        <v>-841.851000</v>
+        <v>-841.851</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>45726.375892</v>
+        <v>45726.375891999996</v>
       </c>
       <c r="BY16" s="1">
-        <v>12.701771</v>
+        <v>12.701771000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1772.020000</v>
+        <v>1772.02</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1120.690000</v>
+        <v>-1120.69</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>45738.806163</v>
+        <v>45738.806163000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>12.705224</v>
+        <v>12.705223999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2194.280000</v>
+        <v>2194.2800000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1796.680000</v>
+        <v>-1796.68</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>45566.344678</v>
+        <v>45566.344678000001</v>
       </c>
       <c r="B17" s="1">
         <v>12.657318</v>
       </c>
       <c r="C17" s="1">
-        <v>1151.980000</v>
+        <v>1151.98</v>
       </c>
       <c r="D17" s="1">
-        <v>-232.697000</v>
+        <v>-232.697</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>45576.727432</v>
@@ -4351,435 +4767,435 @@
         <v>12.660202</v>
       </c>
       <c r="H17" s="1">
-        <v>1170.400000</v>
+        <v>1170.4000000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-196.361000</v>
+        <v>-196.36099999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>45587.165739</v>
+        <v>45587.165738999996</v>
       </c>
       <c r="L17" s="1">
         <v>12.663102</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.860000</v>
+        <v>1195.8599999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-140.920000</v>
+        <v>-140.91999999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>45597.704268</v>
+        <v>45597.704268000001</v>
       </c>
       <c r="Q17" s="1">
         <v>12.666029</v>
       </c>
       <c r="R17" s="1">
-        <v>1204.000000</v>
+        <v>1204</v>
       </c>
       <c r="S17" s="1">
-        <v>-121.854000</v>
+        <v>-121.854</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>45607.781952</v>
+        <v>45607.781951999998</v>
       </c>
       <c r="V17" s="1">
         <v>12.668828</v>
       </c>
       <c r="W17" s="1">
-        <v>1212.020000</v>
+        <v>1212.02</v>
       </c>
       <c r="X17" s="1">
-        <v>-103.858000</v>
+        <v>-103.858</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>45618.271347</v>
+        <v>45618.271347000002</v>
       </c>
       <c r="AA17" s="1">
         <v>12.671742</v>
       </c>
       <c r="AB17" s="1">
-        <v>1220.710000</v>
+        <v>1220.71</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.026100</v>
+        <v>-89.0261</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>45628.778136</v>
+        <v>45628.778136000001</v>
       </c>
       <c r="AF17" s="1">
         <v>12.674661</v>
       </c>
       <c r="AG17" s="1">
-        <v>1225.990000</v>
+        <v>1225.99</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.381200</v>
+        <v>-85.381200000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>45639.360286</v>
+        <v>45639.360286000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>12.677600</v>
+        <v>12.6776</v>
       </c>
       <c r="AL17" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.419000</v>
+        <v>-89.418999999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>45650.190887</v>
+        <v>45650.190886999997</v>
       </c>
       <c r="AP17" s="1">
         <v>12.680609</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.755000</v>
+        <v>-101.755</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>45661.191658</v>
+        <v>45661.191658000003</v>
       </c>
       <c r="AU17" s="1">
         <v>12.683664</v>
       </c>
       <c r="AV17" s="1">
-        <v>1251.920000</v>
+        <v>1251.92</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.481000</v>
+        <v>-121.48099999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>45672.240069</v>
+        <v>45672.240068999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>12.686733</v>
       </c>
       <c r="BA17" s="1">
-        <v>1260.440000</v>
+        <v>1260.44</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.232000</v>
+        <v>-139.232</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>45682.833639</v>
+        <v>45682.833638999997</v>
       </c>
       <c r="BE17" s="1">
         <v>12.689676</v>
       </c>
       <c r="BF17" s="1">
-        <v>1300.750000</v>
+        <v>1300.75</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.297000</v>
+        <v>-222.297</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>45693.768903</v>
+        <v>45693.768902999996</v>
       </c>
       <c r="BJ17" s="1">
         <v>12.692714</v>
       </c>
       <c r="BK17" s="1">
-        <v>1370.620000</v>
+        <v>1370.62</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.708000</v>
+        <v>-360.70800000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>45705.151582</v>
+        <v>45705.151581999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>12.695875</v>
+        <v>12.695874999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1485.440000</v>
+        <v>1485.44</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-586.652000</v>
+        <v>-586.65200000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>45715.523454</v>
+        <v>45715.523454000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>12.698757</v>
+        <v>12.698757000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1617.990000</v>
+        <v>1617.99</v>
       </c>
       <c r="BV17" s="1">
-        <v>-841.910000</v>
+        <v>-841.91</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>45726.798481</v>
+        <v>45726.798480999998</v>
       </c>
       <c r="BY17" s="1">
         <v>12.701888</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1771.980000</v>
+        <v>1771.98</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1120.670000</v>
+        <v>-1120.67</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>45739.326468</v>
+        <v>45739.326467999999</v>
       </c>
       <c r="CD17" s="1">
         <v>12.705368</v>
       </c>
       <c r="CE17" s="1">
-        <v>2196.110000</v>
+        <v>2196.11</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1798.070000</v>
+        <v>-1798.07</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>45566.993942</v>
+        <v>45566.993942000001</v>
       </c>
       <c r="B18" s="1">
         <v>12.657498</v>
       </c>
       <c r="C18" s="1">
-        <v>1151.790000</v>
+        <v>1151.79</v>
       </c>
       <c r="D18" s="1">
-        <v>-232.546000</v>
+        <v>-232.54599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>45577.106412</v>
+        <v>45577.106412000001</v>
       </c>
       <c r="G18" s="1">
         <v>12.660307</v>
       </c>
       <c r="H18" s="1">
-        <v>1169.860000</v>
+        <v>1169.8599999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-196.175000</v>
+        <v>-196.17500000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>45587.555099</v>
+        <v>45587.555098999997</v>
       </c>
       <c r="L18" s="1">
-        <v>12.663210</v>
+        <v>12.663209999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1195.940000</v>
+        <v>1195.94</v>
       </c>
       <c r="N18" s="1">
-        <v>-141.120000</v>
+        <v>-141.12</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>45598.055900</v>
+        <v>45598.055899999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>12.666127</v>
+        <v>12.666126999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.990000</v>
+        <v>1203.99</v>
       </c>
       <c r="S18" s="1">
-        <v>-121.911000</v>
+        <v>-121.911</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>45608.125679</v>
+        <v>45608.125678999997</v>
       </c>
       <c r="V18" s="1">
-        <v>12.668924</v>
+        <v>12.668924000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1212.180000</v>
+        <v>1212.18</v>
       </c>
       <c r="X18" s="1">
-        <v>-103.912000</v>
+        <v>-103.91200000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>45618.618082</v>
+        <v>45618.618082000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>12.671838</v>
+        <v>12.671837999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1220.800000</v>
+        <v>1220.8</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.026400</v>
+        <v>-89.026399999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>45629.193285</v>
+        <v>45629.193285000001</v>
       </c>
       <c r="AF18" s="1">
         <v>12.674776</v>
       </c>
       <c r="AG18" s="1">
-        <v>1226.090000</v>
+        <v>1226.0899999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.333100</v>
+        <v>-85.333100000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>45639.641020</v>
+        <v>45639.641020000003</v>
       </c>
       <c r="AK18" s="1">
         <v>12.677678</v>
       </c>
       <c r="AL18" s="1">
-        <v>1233.620000</v>
+        <v>1233.6199999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.408000</v>
+        <v>-89.408000000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>45650.486503</v>
       </c>
       <c r="AP18" s="1">
-        <v>12.680691</v>
+        <v>12.680690999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1241.830000</v>
+        <v>1241.83</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.729000</v>
+        <v>-101.729</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>45661.555225</v>
+        <v>45661.555224999996</v>
       </c>
       <c r="AU18" s="1">
-        <v>12.683765</v>
+        <v>12.683764999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1251.900000</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.497000</v>
+        <v>-121.497</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>45672.598153</v>
+        <v>45672.598152999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>12.686833</v>
       </c>
       <c r="BA18" s="1">
-        <v>1260.420000</v>
+        <v>1260.42</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.216000</v>
+        <v>-139.21600000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>45683.191739</v>
+        <v>45683.191739000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>12.689775</v>
+        <v>12.689774999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1300.780000</v>
+        <v>1300.78</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.315000</v>
+        <v>-222.315</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>45694.518380</v>
+        <v>45694.518380000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>12.692922</v>
+        <v>12.692921999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1370.650000</v>
+        <v>1370.65</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.709000</v>
+        <v>-360.709</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>45705.350478</v>
@@ -4788,150 +5204,150 @@
         <v>12.695931</v>
       </c>
       <c r="BP18" s="1">
-        <v>1485.470000</v>
+        <v>1485.47</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-586.624000</v>
+        <v>-586.62400000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>45715.950517</v>
+        <v>45715.950516999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>12.698875</v>
+        <v>12.698874999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1618.060000</v>
+        <v>1618.06</v>
       </c>
       <c r="BV18" s="1">
-        <v>-841.885000</v>
+        <v>-841.88499999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>45727.247361</v>
+        <v>45727.247361000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>12.702013</v>
+        <v>12.702013000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1772.070000</v>
+        <v>1772.07</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1120.420000</v>
+        <v>-1120.42</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>45740.162219</v>
+        <v>45740.162218999998</v>
       </c>
       <c r="CD18" s="1">
         <v>12.705601</v>
       </c>
       <c r="CE18" s="1">
-        <v>2197.290000</v>
+        <v>2197.29</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1795.690000</v>
+        <v>-1795.69</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>45567.368421</v>
+        <v>45567.368420999999</v>
       </c>
       <c r="B19" s="1">
-        <v>12.657602</v>
+        <v>12.657602000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1152.060000</v>
+        <v>1152.06</v>
       </c>
       <c r="D19" s="1">
-        <v>-232.592000</v>
+        <v>-232.59200000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>45577.452087</v>
+        <v>45577.452086999998</v>
       </c>
       <c r="G19" s="1">
-        <v>12.660403</v>
+        <v>12.660403000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1169.500000</v>
+        <v>1169.5</v>
       </c>
       <c r="I19" s="1">
-        <v>-196.254000</v>
+        <v>-196.25399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>45587.898369</v>
+        <v>45587.898369000002</v>
       </c>
       <c r="L19" s="1">
-        <v>12.663305</v>
+        <v>12.663304999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.990000</v>
+        <v>1195.99</v>
       </c>
       <c r="N19" s="1">
-        <v>-140.902000</v>
+        <v>-140.90199999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>45598.408059</v>
+        <v>45598.408059000001</v>
       </c>
       <c r="Q19" s="1">
         <v>12.666224</v>
       </c>
       <c r="R19" s="1">
-        <v>1203.970000</v>
+        <v>1203.97</v>
       </c>
       <c r="S19" s="1">
-        <v>-121.970000</v>
+        <v>-121.97</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>45608.555710</v>
+        <v>45608.555710000001</v>
       </c>
       <c r="V19" s="1">
         <v>12.669043</v>
       </c>
       <c r="W19" s="1">
-        <v>1212.080000</v>
+        <v>1212.08</v>
       </c>
       <c r="X19" s="1">
-        <v>-103.784000</v>
+        <v>-103.78400000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>45619.049568</v>
+        <v>45619.049568000002</v>
       </c>
       <c r="AA19" s="1">
         <v>12.671958</v>
       </c>
       <c r="AB19" s="1">
-        <v>1220.810000</v>
+        <v>1220.81</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.007600</v>
+        <v>-89.007599999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>45629.473026</v>
@@ -4940,452 +5356,452 @@
         <v>12.674854</v>
       </c>
       <c r="AG19" s="1">
-        <v>1225.980000</v>
+        <v>1225.98</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.468300</v>
+        <v>-85.468299999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>45639.992646</v>
+        <v>45639.992645999999</v>
       </c>
       <c r="AK19" s="1">
         <v>12.677776</v>
       </c>
       <c r="AL19" s="1">
-        <v>1233.620000</v>
+        <v>1233.6199999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.416000</v>
+        <v>-89.415999999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>45650.848583</v>
+        <v>45650.848582999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>12.680791</v>
+        <v>12.680790999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.736000</v>
+        <v>-101.736</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>45661.921767</v>
       </c>
       <c r="AU19" s="1">
-        <v>12.683867</v>
+        <v>12.683866999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1251.890000</v>
+        <v>1251.8900000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.504000</v>
+        <v>-121.504</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>45673.316392</v>
+        <v>45673.316392000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>12.687032</v>
       </c>
       <c r="BA19" s="1">
-        <v>1260.430000</v>
+        <v>1260.43</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.240000</v>
+        <v>-139.24</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>45683.912890</v>
+        <v>45683.91289</v>
       </c>
       <c r="BE19" s="1">
         <v>12.689976</v>
       </c>
       <c r="BF19" s="1">
-        <v>1300.770000</v>
+        <v>1300.77</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.290000</v>
+        <v>-222.29</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>45694.895308</v>
+        <v>45694.895307999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>12.693026</v>
       </c>
       <c r="BK19" s="1">
-        <v>1370.650000</v>
+        <v>1370.65</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.748000</v>
+        <v>-360.74799999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>45705.746320</v>
+        <v>45705.746319999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>12.696041</v>
+        <v>12.696040999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1485.500000</v>
+        <v>1485.5</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-586.645000</v>
+        <v>-586.64499999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>45716.364144</v>
+        <v>45716.364143999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>12.698990</v>
+        <v>12.69899</v>
       </c>
       <c r="BU19" s="1">
-        <v>1617.980000</v>
+        <v>1617.98</v>
       </c>
       <c r="BV19" s="1">
-        <v>-841.917000</v>
+        <v>-841.91700000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>45727.987423</v>
+        <v>45727.987422999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>12.702219</v>
+        <v>12.702218999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1771.920000</v>
+        <v>1771.92</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1120.530000</v>
+        <v>-1120.53</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>45740.362577</v>
       </c>
       <c r="CD19" s="1">
-        <v>12.705656</v>
+        <v>12.705655999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2195.360000</v>
+        <v>2195.36</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1795.190000</v>
+        <v>-1795.19</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>45567.710692</v>
+        <v>45567.710692000001</v>
       </c>
       <c r="B20" s="1">
-        <v>12.657697</v>
+        <v>12.657697000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1151.960000</v>
+        <v>1151.96</v>
       </c>
       <c r="D20" s="1">
-        <v>-232.172000</v>
+        <v>-232.172</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>45577.796808</v>
+        <v>45577.796807999999</v>
       </c>
       <c r="G20" s="1">
         <v>12.660499</v>
       </c>
       <c r="H20" s="1">
-        <v>1170.050000</v>
+        <v>1170.05</v>
       </c>
       <c r="I20" s="1">
-        <v>-197.036000</v>
+        <v>-197.036</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>45588.246521</v>
+        <v>45588.246521000001</v>
       </c>
       <c r="L20" s="1">
         <v>12.663402</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.930000</v>
+        <v>1195.93</v>
       </c>
       <c r="N20" s="1">
-        <v>-140.757000</v>
+        <v>-140.75700000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>45598.830190</v>
+        <v>45598.830190000001</v>
       </c>
       <c r="Q20" s="1">
         <v>12.666342</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.980000</v>
+        <v>1203.98</v>
       </c>
       <c r="S20" s="1">
-        <v>-121.987000</v>
+        <v>-121.98699999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>45608.820573</v>
+        <v>45608.820572999997</v>
       </c>
       <c r="V20" s="1">
         <v>12.669117</v>
       </c>
       <c r="W20" s="1">
-        <v>1212.070000</v>
+        <v>1212.07</v>
       </c>
       <c r="X20" s="1">
-        <v>-103.925000</v>
+        <v>-103.925</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>45619.324847</v>
+        <v>45619.324847000004</v>
       </c>
       <c r="AA20" s="1">
-        <v>12.672035</v>
+        <v>12.672034999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1220.770000</v>
+        <v>1220.77</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.028700</v>
+        <v>-89.028700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>45629.817746</v>
+        <v>45629.817746000001</v>
       </c>
       <c r="AF20" s="1">
         <v>12.674949</v>
       </c>
       <c r="AG20" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.294600</v>
+        <v>-85.294600000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>45640.340340</v>
+        <v>45640.340340000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>12.677872</v>
+        <v>12.677872000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1233.630000</v>
+        <v>1233.6300000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.409700</v>
+        <v>-89.409700000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>45651.210167</v>
+        <v>45651.210166999997</v>
       </c>
       <c r="AP20" s="1">
         <v>12.680892</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1241.750000</v>
+        <v>1241.75</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.777000</v>
+        <v>-101.777</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>45662.649430</v>
+        <v>45662.649429999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>12.684069</v>
+        <v>12.684068999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1251.910000</v>
+        <v>1251.9100000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.487000</v>
+        <v>-121.48699999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>45673.675500</v>
+        <v>45673.675499999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>12.687132</v>
       </c>
       <c r="BA20" s="1">
-        <v>1260.440000</v>
+        <v>1260.44</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.223000</v>
+        <v>-139.22300000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>45684.273978</v>
+        <v>45684.273977999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>12.690076</v>
+        <v>12.690075999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1300.780000</v>
+        <v>1300.78</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.309000</v>
+        <v>-222.309</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>45695.269324</v>
+        <v>45695.269324000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>12.693130</v>
+        <v>12.69313</v>
       </c>
       <c r="BK20" s="1">
-        <v>1370.650000</v>
+        <v>1370.65</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.701000</v>
+        <v>-360.70100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>45706.477390</v>
+        <v>45706.47739</v>
       </c>
       <c r="BO20" s="1">
         <v>12.696244</v>
       </c>
       <c r="BP20" s="1">
-        <v>1485.470000</v>
+        <v>1485.47</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-586.642000</v>
+        <v>-586.64200000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>45717.100206</v>
+        <v>45717.100206000003</v>
       </c>
       <c r="BT20" s="1">
         <v>12.699195</v>
       </c>
       <c r="BU20" s="1">
-        <v>1618.070000</v>
+        <v>1618.07</v>
       </c>
       <c r="BV20" s="1">
-        <v>-841.969000</v>
+        <v>-841.96900000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>45728.108912</v>
+        <v>45728.108912000003</v>
       </c>
       <c r="BY20" s="1">
         <v>12.702252</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1771.960000</v>
+        <v>1771.96</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1120.790000</v>
+        <v>-1120.79</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>45740.879408</v>
+        <v>45740.879408000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>12.705800</v>
+        <v>12.7058</v>
       </c>
       <c r="CE20" s="1">
-        <v>2194.630000</v>
+        <v>2194.63</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1795.060000</v>
+        <v>-1795.06</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>45568.053893</v>
+        <v>45568.053892999997</v>
       </c>
       <c r="B21" s="1">
         <v>12.657793</v>
       </c>
       <c r="C21" s="1">
-        <v>1151.870000</v>
+        <v>1151.8699999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-232.572000</v>
+        <v>-232.572</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>45578.215959</v>
+        <v>45578.215959000001</v>
       </c>
       <c r="G21" s="1">
-        <v>12.660616</v>
+        <v>12.660615999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1170.240000</v>
+        <v>1170.24</v>
       </c>
       <c r="I21" s="1">
-        <v>-196.775000</v>
+        <v>-196.77500000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>45588.723672</v>
@@ -5394,163 +5810,163 @@
         <v>12.663534</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.800000</v>
+        <v>1195.8</v>
       </c>
       <c r="N21" s="1">
-        <v>-141.071000</v>
+        <v>-141.071</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>45599.109931</v>
+        <v>45599.109930999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>12.666419</v>
+        <v>12.666418999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.980000</v>
+        <v>1203.98</v>
       </c>
       <c r="S21" s="1">
-        <v>-122.006000</v>
+        <v>-122.006</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>45609.164301</v>
+        <v>45609.164300999997</v>
       </c>
       <c r="V21" s="1">
         <v>12.669212</v>
       </c>
       <c r="W21" s="1">
-        <v>1212.130000</v>
+        <v>1212.1300000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-104.026000</v>
+        <v>-104.026</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>45619.675519</v>
+        <v>45619.675518999997</v>
       </c>
       <c r="AA21" s="1">
         <v>12.672132</v>
       </c>
       <c r="AB21" s="1">
-        <v>1220.770000</v>
+        <v>1220.77</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.030400</v>
+        <v>-89.0304</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>45630.160945</v>
+        <v>45630.160945000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.675045</v>
+        <v>12.675045000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1226.070000</v>
+        <v>1226.07</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.246900</v>
+        <v>-85.246899999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>45641.037716</v>
+        <v>45641.037715999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>12.678066</v>
+        <v>12.678065999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1233.630000</v>
+        <v>1233.6300000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.418600</v>
+        <v>-89.418599999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>45651.929864</v>
+        <v>45651.929863999998</v>
       </c>
       <c r="AP21" s="1">
         <v>12.681092</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.758000</v>
+        <v>-101.758</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>45663.044214</v>
+        <v>45663.044214000001</v>
       </c>
       <c r="AU21" s="1">
         <v>12.684179</v>
       </c>
       <c r="AV21" s="1">
-        <v>1251.920000</v>
+        <v>1251.92</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.483000</v>
+        <v>-121.483</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>45674.034569</v>
+        <v>45674.034569000003</v>
       </c>
       <c r="AZ21" s="1">
         <v>12.687232</v>
       </c>
       <c r="BA21" s="1">
-        <v>1260.410000</v>
+        <v>1260.4100000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.242000</v>
+        <v>-139.24199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>45684.634108</v>
+        <v>45684.634107999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>12.690176</v>
+        <v>12.690175999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1300.750000</v>
+        <v>1300.75</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.308000</v>
+        <v>-222.30799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>45695.957275</v>
+        <v>45695.957275000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>12.693321</v>
+        <v>12.693320999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1370.640000</v>
+        <v>1370.64</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.727000</v>
+        <v>-360.72699999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>45706.589516</v>
@@ -5559,105 +5975,105 @@
         <v>12.696275</v>
       </c>
       <c r="BP21" s="1">
-        <v>1485.410000</v>
+        <v>1485.41</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-586.640000</v>
+        <v>-586.64</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>45717.221756</v>
+        <v>45717.221755999999</v>
       </c>
       <c r="BT21" s="1">
         <v>12.699228</v>
       </c>
       <c r="BU21" s="1">
-        <v>1617.990000</v>
+        <v>1617.99</v>
       </c>
       <c r="BV21" s="1">
-        <v>-841.830000</v>
+        <v>-841.83</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>45728.535967</v>
+        <v>45728.535967000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>12.702371</v>
+        <v>12.702370999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1772.000000</v>
+        <v>1772</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1120.520000</v>
+        <v>-1120.52</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>45741.427991</v>
+        <v>45741.427990999997</v>
       </c>
       <c r="CD21" s="1">
         <v>12.705952</v>
       </c>
       <c r="CE21" s="1">
-        <v>2195.810000</v>
+        <v>2195.81</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1794.920000</v>
+        <v>-1794.92</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>45568.481939</v>
+        <v>45568.481938999998</v>
       </c>
       <c r="B22" s="1">
         <v>12.657912</v>
       </c>
       <c r="C22" s="1">
-        <v>1152.250000</v>
+        <v>1152.25</v>
       </c>
       <c r="D22" s="1">
-        <v>-232.578000</v>
+        <v>-232.578</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>45578.491735</v>
+        <v>45578.491735000003</v>
       </c>
       <c r="G22" s="1">
-        <v>12.660692</v>
+        <v>12.660691999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1169.870000</v>
+        <v>1169.8699999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-196.507000</v>
+        <v>-196.50700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>45588.958776</v>
+        <v>45588.958775999999</v>
       </c>
       <c r="L22" s="1">
-        <v>12.663600</v>
+        <v>12.663600000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-141.350000</v>
+        <v>-141.35</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>45599.457595</v>
@@ -5666,178 +6082,178 @@
         <v>12.666516</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.920000</v>
+        <v>1203.92</v>
       </c>
       <c r="S22" s="1">
-        <v>-122.041000</v>
+        <v>-122.041</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>45609.507565</v>
       </c>
       <c r="V22" s="1">
-        <v>12.669308</v>
+        <v>12.669307999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1212.130000</v>
+        <v>1212.1300000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-103.854000</v>
+        <v>-103.854</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>45620.022719</v>
+        <v>45620.022719000001</v>
       </c>
       <c r="AA22" s="1">
         <v>12.672229</v>
       </c>
       <c r="AB22" s="1">
-        <v>1220.740000</v>
+        <v>1220.74</v>
       </c>
       <c r="AC22" s="1">
-        <v>-88.930600</v>
+        <v>-88.930599999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>45630.849157</v>
+        <v>45630.849156999997</v>
       </c>
       <c r="AF22" s="1">
         <v>12.675236</v>
       </c>
       <c r="AG22" s="1">
-        <v>1226.010000</v>
+        <v>1226.01</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.335500</v>
+        <v>-85.335499999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>45641.387395</v>
+        <v>45641.387394999998</v>
       </c>
       <c r="AK22" s="1">
         <v>12.678163</v>
       </c>
       <c r="AL22" s="1">
-        <v>1233.620000</v>
+        <v>1233.6199999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.403500</v>
+        <v>-89.403499999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>45652.288468</v>
+        <v>45652.288467999999</v>
       </c>
       <c r="AP22" s="1">
         <v>12.681191</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1241.780000</v>
+        <v>1241.78</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.770000</v>
+        <v>-101.77</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>45663.403846</v>
+        <v>45663.403846000001</v>
       </c>
       <c r="AU22" s="1">
         <v>12.684279</v>
       </c>
       <c r="AV22" s="1">
-        <v>1251.910000</v>
+        <v>1251.9100000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.477000</v>
+        <v>-121.477</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>45674.711111</v>
+        <v>45674.711110999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>12.687420</v>
+        <v>12.687419999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1260.440000</v>
+        <v>1260.44</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.239000</v>
+        <v>-139.239</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>45685.305693</v>
+        <v>45685.305693000002</v>
       </c>
       <c r="BE22" s="1">
         <v>12.690363</v>
       </c>
       <c r="BF22" s="1">
-        <v>1300.740000</v>
+        <v>1300.74</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.318000</v>
+        <v>-222.31800000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>45696.395242</v>
+        <v>45696.395241999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>12.693443</v>
       </c>
       <c r="BK22" s="1">
-        <v>1370.650000</v>
+        <v>1370.65</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.734000</v>
+        <v>-360.73399999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>45706.988268</v>
+        <v>45706.988268000001</v>
       </c>
       <c r="BO22" s="1">
         <v>12.696386</v>
       </c>
       <c r="BP22" s="1">
-        <v>1485.490000</v>
+        <v>1485.49</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-586.679000</v>
+        <v>-586.67899999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>45717.632947</v>
+        <v>45717.632946999998</v>
       </c>
       <c r="BT22" s="1">
         <v>12.699342</v>
       </c>
       <c r="BU22" s="1">
-        <v>1618.080000</v>
+        <v>1618.08</v>
       </c>
       <c r="BV22" s="1">
-        <v>-841.842000</v>
+        <v>-841.84199999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>45728.953599</v>
@@ -5846,60 +6262,60 @@
         <v>12.702487</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1771.760000</v>
+        <v>1771.76</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1120.420000</v>
+        <v>-1120.42</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>45741.960223</v>
+        <v>45741.960223000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>12.706100</v>
+        <v>12.706099999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2194.190000</v>
+        <v>2194.19</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1796.000000</v>
+        <v>-1796</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>45568.753252</v>
+        <v>45568.753252000002</v>
       </c>
       <c r="B23" s="1">
         <v>12.657987</v>
       </c>
       <c r="C23" s="1">
-        <v>1152.060000</v>
+        <v>1152.06</v>
       </c>
       <c r="D23" s="1">
-        <v>-232.730000</v>
+        <v>-232.73</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>45578.836435</v>
+        <v>45578.836434999997</v>
       </c>
       <c r="G23" s="1">
         <v>12.660788</v>
       </c>
       <c r="H23" s="1">
-        <v>1169.950000</v>
+        <v>1169.95</v>
       </c>
       <c r="I23" s="1">
-        <v>-198.122000</v>
+        <v>-198.12200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>45589.305021</v>
@@ -5908,13 +6324,13 @@
         <v>12.663696</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.690000</v>
+        <v>1195.69</v>
       </c>
       <c r="N23" s="1">
-        <v>-140.785000</v>
+        <v>-140.785</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>45599.820667</v>
@@ -5923,405 +6339,405 @@
         <v>12.666617</v>
       </c>
       <c r="R23" s="1">
-        <v>1203.970000</v>
+        <v>1203.97</v>
       </c>
       <c r="S23" s="1">
-        <v>-121.890000</v>
+        <v>-121.89</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>45610.195014</v>
+        <v>45610.195013999997</v>
       </c>
       <c r="V23" s="1">
         <v>12.669499</v>
       </c>
       <c r="W23" s="1">
-        <v>1211.980000</v>
+        <v>1211.98</v>
       </c>
       <c r="X23" s="1">
-        <v>-103.676000</v>
+        <v>-103.676</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>45620.719139</v>
+        <v>45620.719139000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>12.672422</v>
+        <v>12.672421999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1220.810000</v>
+        <v>1220.81</v>
       </c>
       <c r="AC23" s="1">
-        <v>-88.942600</v>
+        <v>-88.942599999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>45631.191632</v>
+        <v>45631.191632000002</v>
       </c>
       <c r="AF23" s="1">
         <v>12.675331</v>
       </c>
       <c r="AG23" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.353100</v>
+        <v>-85.353099999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>45641.737074</v>
+        <v>45641.737073999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>12.678260</v>
+        <v>12.67826</v>
       </c>
       <c r="AL23" s="1">
-        <v>1233.630000</v>
+        <v>1233.6300000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.384800</v>
+        <v>-89.384799999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>45652.648563</v>
+        <v>45652.648563000002</v>
       </c>
       <c r="AP23" s="1">
         <v>12.681291</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.769000</v>
+        <v>-101.76900000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>45664.081350</v>
+        <v>45664.08135</v>
       </c>
       <c r="AU23" s="1">
         <v>12.684467</v>
       </c>
       <c r="AV23" s="1">
-        <v>1251.920000</v>
+        <v>1251.92</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.478000</v>
+        <v>-121.47799999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>45675.111393</v>
+        <v>45675.111392999999</v>
       </c>
       <c r="AZ23" s="1">
         <v>12.687531</v>
       </c>
       <c r="BA23" s="1">
-        <v>1260.410000</v>
+        <v>1260.4100000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.268000</v>
+        <v>-139.268</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>45685.743625</v>
+        <v>45685.743625000003</v>
       </c>
       <c r="BE23" s="1">
         <v>12.690484</v>
       </c>
       <c r="BF23" s="1">
-        <v>1300.730000</v>
+        <v>1300.73</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.345000</v>
+        <v>-222.345</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>45696.770218</v>
+        <v>45696.770217999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>12.693547</v>
+        <v>12.693547000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1370.610000</v>
+        <v>1370.61</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.728000</v>
+        <v>-360.72800000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>45707.410859</v>
+        <v>45707.410859000003</v>
       </c>
       <c r="BO23" s="1">
         <v>12.696503</v>
       </c>
       <c r="BP23" s="1">
-        <v>1485.500000</v>
+        <v>1485.5</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-586.637000</v>
+        <v>-586.63699999999994</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>45718.065949</v>
+        <v>45718.065949000003</v>
       </c>
       <c r="BT23" s="1">
         <v>12.699463</v>
       </c>
       <c r="BU23" s="1">
-        <v>1618.120000</v>
+        <v>1618.12</v>
       </c>
       <c r="BV23" s="1">
-        <v>-841.761000</v>
+        <v>-841.76099999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>45729.399998</v>
+        <v>45729.399998000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>12.702611</v>
+        <v>12.702610999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1771.920000</v>
+        <v>1771.92</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1120.480000</v>
+        <v>-1120.48</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>45742.477021</v>
+        <v>45742.477020999999</v>
       </c>
       <c r="CD23" s="1">
         <v>12.706244</v>
       </c>
       <c r="CE23" s="1">
-        <v>2195.510000</v>
+        <v>2195.5100000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1797.920000</v>
+        <v>-1797.92</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>45569.096018</v>
+        <v>45569.096017999997</v>
       </c>
       <c r="B24" s="1">
         <v>12.658082</v>
       </c>
       <c r="C24" s="1">
-        <v>1151.890000</v>
+        <v>1151.8900000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-232.407000</v>
+        <v>-232.40700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>45579.182165</v>
+        <v>45579.182164999998</v>
       </c>
       <c r="G24" s="1">
-        <v>12.660884</v>
+        <v>12.660883999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1170.380000</v>
+        <v>1170.3800000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-196.327000</v>
+        <v>-196.327</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>45589.991942</v>
+        <v>45589.991942000001</v>
       </c>
       <c r="L24" s="1">
-        <v>12.663887</v>
+        <v>12.663887000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.880000</v>
+        <v>1195.8800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-140.755000</v>
+        <v>-140.755</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>45600.504185</v>
+        <v>45600.504184999998</v>
       </c>
       <c r="Q24" s="1">
         <v>12.666807</v>
       </c>
       <c r="R24" s="1">
-        <v>1204.040000</v>
+        <v>1204.04</v>
       </c>
       <c r="S24" s="1">
-        <v>-122.062000</v>
+        <v>-122.062</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>45610.538720</v>
+        <v>45610.538719999997</v>
       </c>
       <c r="V24" s="1">
         <v>12.669594</v>
       </c>
       <c r="W24" s="1">
-        <v>1212.180000</v>
+        <v>1212.18</v>
       </c>
       <c r="X24" s="1">
-        <v>-103.897000</v>
+        <v>-103.89700000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>45621.069776</v>
+        <v>45621.069775999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>12.672519</v>
+        <v>12.672518999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1220.680000</v>
+        <v>1220.68</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.132200</v>
+        <v>-89.132199999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>45631.535359</v>
+        <v>45631.535359000001</v>
       </c>
       <c r="AF24" s="1">
         <v>12.675426</v>
       </c>
       <c r="AG24" s="1">
-        <v>1226.080000</v>
+        <v>1226.08</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.491300</v>
+        <v>-85.491299999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>45642.390343</v>
+        <v>45642.390342999999</v>
       </c>
       <c r="AK24" s="1">
         <v>12.678442</v>
       </c>
       <c r="AL24" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.376800</v>
+        <v>-89.376800000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>45653.319155</v>
+        <v>45653.319154999997</v>
       </c>
       <c r="AP24" s="1">
         <v>12.681478</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.785000</v>
+        <v>-101.785</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>45664.533204</v>
+        <v>45664.533203999999</v>
       </c>
       <c r="AU24" s="1">
         <v>12.684593</v>
       </c>
       <c r="AV24" s="1">
-        <v>1251.890000</v>
+        <v>1251.8900000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.490000</v>
+        <v>-121.49</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>45675.496810</v>
+        <v>45675.496809999997</v>
       </c>
       <c r="AZ24" s="1">
         <v>12.687638</v>
       </c>
       <c r="BA24" s="1">
-        <v>1260.430000</v>
+        <v>1260.43</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.259000</v>
+        <v>-139.25899999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>45686.109177</v>
+        <v>45686.109176999998</v>
       </c>
       <c r="BE24" s="1">
         <v>12.690586</v>
       </c>
       <c r="BF24" s="1">
-        <v>1300.730000</v>
+        <v>1300.73</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.337000</v>
+        <v>-222.33699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>45697.145658</v>
+        <v>45697.145658000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>12.693652</v>
       </c>
       <c r="BK24" s="1">
-        <v>1370.620000</v>
+        <v>1370.62</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.724000</v>
+        <v>-360.72399999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>45707.840892</v>
@@ -6330,13 +6746,13 @@
         <v>12.696622</v>
       </c>
       <c r="BP24" s="1">
-        <v>1485.470000</v>
+        <v>1485.47</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-586.658000</v>
+        <v>-586.65800000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>45718.491982</v>
@@ -6345,407 +6761,407 @@
         <v>12.699581</v>
       </c>
       <c r="BU24" s="1">
-        <v>1618.050000</v>
+        <v>1618.05</v>
       </c>
       <c r="BV24" s="1">
-        <v>-841.890000</v>
+        <v>-841.89</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>45729.820642</v>
+        <v>45729.820641999999</v>
       </c>
       <c r="BY24" s="1">
         <v>12.702728</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1771.890000</v>
+        <v>1771.89</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1120.520000</v>
+        <v>-1120.52</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>45742.995836</v>
+        <v>45742.995836000002</v>
       </c>
       <c r="CD24" s="1">
         <v>12.706388</v>
       </c>
       <c r="CE24" s="1">
-        <v>2196.680000</v>
+        <v>2196.6799999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1796.270000</v>
+        <v>-1796.27</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>45569.436777</v>
+        <v>45569.436777000003</v>
       </c>
       <c r="B25" s="1">
         <v>12.658177</v>
       </c>
       <c r="C25" s="1">
-        <v>1151.940000</v>
+        <v>1151.94</v>
       </c>
       <c r="D25" s="1">
-        <v>-232.570000</v>
+        <v>-232.57</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>45579.871572</v>
+        <v>45579.871571999996</v>
       </c>
       <c r="G25" s="1">
         <v>12.661075</v>
       </c>
       <c r="H25" s="1">
-        <v>1170.270000</v>
+        <v>1170.27</v>
       </c>
       <c r="I25" s="1">
-        <v>-196.735000</v>
+        <v>-196.73500000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>45590.340134</v>
+        <v>45590.340133999998</v>
       </c>
       <c r="L25" s="1">
         <v>12.663983</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.800000</v>
+        <v>1195.8</v>
       </c>
       <c r="N25" s="1">
-        <v>-140.798000</v>
+        <v>-140.798</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>45600.851352</v>
+        <v>45600.851351999998</v>
       </c>
       <c r="Q25" s="1">
         <v>12.666903</v>
       </c>
       <c r="R25" s="1">
-        <v>1204.010000</v>
+        <v>1204.01</v>
       </c>
       <c r="S25" s="1">
-        <v>-122.074000</v>
+        <v>-122.074</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>45610.883454</v>
+        <v>45610.883454000003</v>
       </c>
       <c r="V25" s="1">
-        <v>12.669690</v>
+        <v>12.669689999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1211.970000</v>
+        <v>1211.97</v>
       </c>
       <c r="X25" s="1">
-        <v>-103.827000</v>
+        <v>-103.827</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>45621.421934</v>
+        <v>45621.421933999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>12.672617</v>
+        <v>12.672617000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1220.640000</v>
+        <v>1220.6400000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.013600</v>
+        <v>-89.013599999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>45632.186110</v>
+        <v>45632.186110000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>12.675607</v>
+        <v>12.675606999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1226.080000</v>
+        <v>1226.08</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.486400</v>
+        <v>-85.486400000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>45642.782146</v>
+        <v>45642.782145999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>12.678551</v>
+        <v>12.678551000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.412600</v>
+        <v>-89.412599999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>45653.763093</v>
+        <v>45653.763093000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>12.681601</v>
+        <v>12.681601000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1241.780000</v>
+        <v>1241.78</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.745000</v>
+        <v>-101.745</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>45664.897765</v>
+        <v>45664.897765000002</v>
       </c>
       <c r="AU25" s="1">
         <v>12.684694</v>
       </c>
       <c r="AV25" s="1">
-        <v>1251.910000</v>
+        <v>1251.9100000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.492000</v>
+        <v>-121.492</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>45675.860341</v>
       </c>
       <c r="AZ25" s="1">
-        <v>12.687739</v>
+        <v>12.687739000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1260.430000</v>
+        <v>1260.43</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.249000</v>
+        <v>-139.249</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>45686.469303</v>
+        <v>45686.469302999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>12.690686</v>
+        <v>12.690685999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1300.730000</v>
+        <v>1300.73</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.315000</v>
+        <v>-222.315</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>45697.575688</v>
+        <v>45697.575687999997</v>
       </c>
       <c r="BJ25" s="1">
         <v>12.693771</v>
       </c>
       <c r="BK25" s="1">
-        <v>1370.610000</v>
+        <v>1370.61</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.740000</v>
+        <v>-360.74</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>45708.227805</v>
+        <v>45708.227805000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>12.696730</v>
+        <v>12.696730000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1485.440000</v>
+        <v>1485.44</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-586.652000</v>
+        <v>-586.65200000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>45718.908622</v>
+        <v>45718.908622000003</v>
       </c>
       <c r="BT25" s="1">
         <v>12.699697</v>
       </c>
       <c r="BU25" s="1">
-        <v>1618.030000</v>
+        <v>1618.03</v>
       </c>
       <c r="BV25" s="1">
-        <v>-841.899000</v>
+        <v>-841.899</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>45730.246684</v>
+        <v>45730.246683999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>12.702846</v>
+        <v>12.702845999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1771.960000</v>
+        <v>1771.96</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1120.600000</v>
+        <v>-1120.5999999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>45743.514652</v>
+        <v>45743.514651999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>12.706532</v>
+        <v>12.706531999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2196.840000</v>
+        <v>2196.84</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1796.450000</v>
+        <v>-1796.45</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>45570.118736</v>
+        <v>45570.118735999997</v>
       </c>
       <c r="B26" s="1">
-        <v>12.658366</v>
+        <v>12.658365999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1151.990000</v>
+        <v>1151.99</v>
       </c>
       <c r="D26" s="1">
-        <v>-232.476000</v>
+        <v>-232.476</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>45580.218307</v>
+        <v>45580.218307000003</v>
       </c>
       <c r="G26" s="1">
-        <v>12.661172</v>
+        <v>12.661172000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1170.380000</v>
+        <v>1170.3800000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-196.413000</v>
+        <v>-196.41300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>45590.686177</v>
+        <v>45590.686177000003</v>
       </c>
       <c r="L26" s="1">
-        <v>12.664079</v>
+        <v>12.664078999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.710000</v>
+        <v>1195.71</v>
       </c>
       <c r="N26" s="1">
-        <v>-141.275000</v>
+        <v>-141.27500000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>45601.201950</v>
+        <v>45601.201950000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>12.667001</v>
+        <v>12.667001000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1204.010000</v>
+        <v>1204.01</v>
       </c>
       <c r="S26" s="1">
-        <v>-122.108000</v>
+        <v>-122.108</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>45611.549563</v>
       </c>
       <c r="V26" s="1">
-        <v>12.669875</v>
+        <v>12.669874999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1212.000000</v>
+        <v>1212</v>
       </c>
       <c r="X26" s="1">
-        <v>-103.854000</v>
+        <v>-103.854</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>45622.115340</v>
+        <v>45622.115339999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>12.672810</v>
+        <v>12.67281</v>
       </c>
       <c r="AB26" s="1">
-        <v>1220.750000</v>
+        <v>1220.75</v>
       </c>
       <c r="AC26" s="1">
-        <v>-88.951100</v>
+        <v>-88.951099999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>45632.563568</v>
+        <v>45632.563567999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>12.675712</v>
+        <v>12.675712000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1226.040000</v>
+        <v>1226.04</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.263200</v>
+        <v>-85.263199999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>45643.130374</v>
@@ -6754,13 +7170,13 @@
         <v>12.678647</v>
       </c>
       <c r="AL26" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.368800</v>
+        <v>-89.368799999999993</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>45654.123666</v>
@@ -6769,58 +7185,58 @@
         <v>12.681701</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1241.780000</v>
+        <v>1241.78</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.763000</v>
+        <v>-101.76300000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>45665.263844</v>
+        <v>45665.263844000001</v>
       </c>
       <c r="AU26" s="1">
         <v>12.684796</v>
       </c>
       <c r="AV26" s="1">
-        <v>1251.910000</v>
+        <v>1251.9100000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.454000</v>
+        <v>-121.45399999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>45676.288885</v>
+        <v>45676.288885000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>12.687858</v>
       </c>
       <c r="BA26" s="1">
-        <v>1260.430000</v>
+        <v>1260.43</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.227000</v>
+        <v>-139.227</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>45686.898807</v>
+        <v>45686.898806999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>12.690805</v>
+        <v>12.690804999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1300.750000</v>
+        <v>1300.75</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.322000</v>
+        <v>-222.322</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>45697.923916</v>
@@ -6829,43 +7245,43 @@
         <v>12.693868</v>
       </c>
       <c r="BK26" s="1">
-        <v>1370.640000</v>
+        <v>1370.64</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.745000</v>
+        <v>-360.745</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>45708.627584</v>
+        <v>45708.627584000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>12.696841</v>
+        <v>12.696840999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1485.500000</v>
+        <v>1485.5</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-586.682000</v>
+        <v>-586.68200000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>45719.335210</v>
+        <v>45719.335209999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>12.699815</v>
+        <v>12.699814999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1618.090000</v>
+        <v>1618.09</v>
       </c>
       <c r="BV26" s="1">
-        <v>-841.812000</v>
+        <v>-841.81200000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>45730.695086</v>
@@ -6874,30 +7290,31 @@
         <v>12.702971</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1772.040000</v>
+        <v>1772.04</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1120.520000</v>
+        <v>-1120.52</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>45744.063764</v>
+        <v>45744.063763999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>12.706684</v>
+        <v>12.706683999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2196.200000</v>
+        <v>2196.1999999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1797.690000</v>
+        <v>-1797.69</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>